--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AC9829-4A3A-47A8-8F41-E12481F6768D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD43B0D-3975-46C8-80A3-82101C6AAE39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Inject/Withdraw Rates and Costs</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>% Cmdty Used</t>
+  </si>
+  <si>
+    <t>Inject/Withdraw/Inventory Constraints</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="B2:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>43702</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -457,18 +457,18 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>43678</v>
@@ -479,12 +479,16 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5">
+        <v>1356</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1525</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>43711</v>
@@ -495,8 +499,12 @@
       <c r="L6" s="5">
         <v>300</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="M6" s="5">
+        <v>1306</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1689</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K7" s="3">
@@ -505,12 +513,16 @@
       <c r="L7" s="5">
         <v>500</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="5">
+        <v>1206</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1711</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3">
         <v>43702</v>
@@ -518,12 +530,16 @@
       <c r="L8" s="5">
         <v>600</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5">
+        <v>1145</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1784</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>0.1</v>
@@ -534,12 +550,16 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="5">
+        <v>1005</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1587</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>1E-4</v>
@@ -548,37 +568,49 @@
         <v>43705</v>
       </c>
       <c r="L10" s="5">
-        <v>300</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="M10" s="5">
+        <v>958</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1604</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K11" s="3">
         <v>43705</v>
       </c>
       <c r="L11" s="5">
-        <v>500</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="M11" s="5">
+        <v>910</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1658</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>43705</v>
+        <v>43709</v>
       </c>
       <c r="L12" s="5">
-        <v>600</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1346</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1479.25</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>0.45</v>
@@ -587,14 +619,18 @@
         <v>43709</v>
       </c>
       <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1296</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1638.33</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6">
         <v>5.0000000000000001E-4</v>
@@ -603,28 +639,32 @@
         <v>43709</v>
       </c>
       <c r="L14" s="5">
-        <v>300</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1196</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1659.6699999999998</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K15" s="3">
         <v>43709</v>
       </c>
       <c r="L15" s="5">
-        <v>500</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1135</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1730.48</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K16" s="3">
-        <v>43709</v>
-      </c>
-      <c r="L16" s="5">
-        <v>600</v>
-      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>

--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD43B0D-3975-46C8-80A3-82101C6AAE39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FA925-BEB1-4CA6-A93A-0A02D4DE3B62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intrinsic_daily" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="CurrentInventory">intrinsic_daily!$C$15</definedName>
     <definedName name="GridSpacing">intrinsic_daily!$C$17</definedName>
-    <definedName name="InjectCmdtyConsumed">intrinsic_daily!$C$10</definedName>
-    <definedName name="InjectCostRate">intrinsic_daily!$C$9</definedName>
-    <definedName name="StorageEnd">intrinsic_daily!$C$6</definedName>
-    <definedName name="StorageStart">intrinsic_daily!$C$5</definedName>
+    <definedName name="InjectCmdtyConsumed">intrinsic_daily!$C$9</definedName>
+    <definedName name="InjectCostRate">intrinsic_daily!$C$8</definedName>
+    <definedName name="StorageEnd">intrinsic_daily!$C$5</definedName>
+    <definedName name="StorageStart">intrinsic_daily!$C$4</definedName>
     <definedName name="ValDate">intrinsic_daily!$C$2</definedName>
-    <definedName name="WithdrawCmdtyConsumed">intrinsic_daily!$C$14</definedName>
-    <definedName name="WithdrawCostRate">intrinsic_daily!$C$13</definedName>
+    <definedName name="WithdrawCmdtyConsumed">intrinsic_daily!$C$13</definedName>
+    <definedName name="WithdrawCostRate">intrinsic_daily!$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Valuation Date</t>
   </si>
@@ -81,13 +82,16 @@
   </si>
   <si>
     <t>Inject/Withdraw/Inventory Constraints</t>
+  </si>
+  <si>
+    <t>Current Inventory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +114,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +132,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -133,11 +149,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -145,9 +162,11 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,22 +445,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N97"/>
+  <dimension ref="B1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F1" s="7" t="str">
+        <f>_xll.cmdtyStorageIntrinsicValue(ValDate,StorageStart,StorageEnd,K5:N24,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,B21:C97,,GridSpacing)</f>
+        <v>Cannot solve for the current period maximum inventory</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +477,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43678</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
@@ -466,12 +497,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>43678</v>
+        <v>43711</v>
       </c>
       <c r="K5" s="3">
         <v>43702</v>
@@ -486,13 +517,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43711</v>
-      </c>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K6" s="3">
         <v>43702</v>
       </c>
@@ -506,7 +531,10 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="3">
         <v>43702</v>
       </c>
@@ -520,9 +548,12 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
       </c>
       <c r="K8" s="3">
         <v>43702</v>
@@ -537,12 +568,12 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.1</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1E-4</v>
       </c>
       <c r="K9" s="3">
         <v>43705</v>
@@ -557,13 +588,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1E-4</v>
-      </c>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K10" s="3">
         <v>43705</v>
       </c>
@@ -577,12 +602,15 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" s="3">
         <v>43705</v>
       </c>
       <c r="L11" s="5">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M11" s="5">
         <v>910</v>
@@ -591,9 +619,12 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.45</v>
       </c>
       <c r="K12" s="3">
         <v>43709</v>
@@ -608,12 +639,12 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.45</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K13" s="3">
         <v>43709</v>
@@ -628,13 +659,7 @@
         <v>1638.33</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5.0000000000000001E-4</v>
-      </c>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K14" s="3">
         <v>43709</v>
       </c>
@@ -648,7 +673,13 @@
         <v>1659.6699999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>500</v>
+      </c>
       <c r="K15" s="3">
         <v>43709</v>
       </c>
@@ -662,13 +693,13 @@
         <v>1730.48</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,13 +711,13 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -695,7 +726,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +738,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>43702</v>
       </c>
@@ -719,7 +750,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f>B21+1</f>
         <v>43703</v>
@@ -732,7 +763,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" ref="B23:B30" si="0">B22+1</f>
         <v>43704</v>
@@ -745,7 +776,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>43705</v>
@@ -758,7 +789,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>43706</v>
@@ -767,7 +798,7 @@
         <v>50.16228238269035</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>43707</v>
@@ -776,7 +807,7 @@
         <v>50.917998292344571</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>43708</v>
@@ -785,7 +816,7 @@
         <v>50.829710805583225</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -794,7 +825,7 @@
         <v>49.978591030576084</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>43710</v>
@@ -803,7 +834,7 @@
         <v>49.147154563324776</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>43711</v>
@@ -812,271 +843,271 @@
         <v>49.099820257454425</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
     </row>

--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FA925-BEB1-4CA6-A93A-0A02D4DE3B62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7070C80-CFFF-47C4-8233-C13D517D4069}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="B1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>43711</v>
+        <v>43710</v>
       </c>
       <c r="K5" s="3">
         <v>43702</v>
@@ -522,7 +522,7 @@
         <v>43702</v>
       </c>
       <c r="L6" s="5">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="M6" s="5">
         <v>1306</v>
@@ -539,7 +539,7 @@
         <v>43702</v>
       </c>
       <c r="L7" s="5">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="M7" s="5">
         <v>1206</v>
@@ -559,7 +559,7 @@
         <v>43702</v>
       </c>
       <c r="L8" s="5">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="M8" s="5">
         <v>1145</v>
@@ -593,7 +593,7 @@
         <v>43705</v>
       </c>
       <c r="L10" s="5">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="M10" s="5">
         <v>958</v>
@@ -610,7 +610,7 @@
         <v>43705</v>
       </c>
       <c r="L11" s="5">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="M11" s="5">
         <v>910</v>
@@ -650,7 +650,7 @@
         <v>43709</v>
       </c>
       <c r="L13" s="5">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="M13" s="5">
         <v>1296</v>
@@ -664,7 +664,7 @@
         <v>43709</v>
       </c>
       <c r="L14" s="5">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="M14" s="5">
         <v>1196</v>
@@ -684,7 +684,7 @@
         <v>43709</v>
       </c>
       <c r="L15" s="5">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="M15" s="5">
         <v>1135</v>

--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7070C80-CFFF-47C4-8233-C13D517D4069}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133F8CE-C3A1-4C9D-AE8B-0DD6C7A924A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intrinsic_daily" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="WithdrawCmdtyConsumed">intrinsic_daily!$C$13</definedName>
     <definedName name="WithdrawCostRate">intrinsic_daily!$C$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Valuation Date</t>
   </si>
@@ -86,11 +86,23 @@
   <si>
     <t>Current Inventory</t>
   </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Decision Profile</t>
+  </si>
+  <si>
+    <t>Inject/Withdraw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -162,7 +174,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -448,25 +461,30 @@
   <dimension ref="B1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F1" s="7" t="str">
-        <f>_xll.cmdtyStorageIntrinsicValue(ValDate,StorageStart,StorageEnd,K5:N24,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,B21:C97,,GridSpacing)</f>
-        <v>Cannot solve for the current period maximum inventory</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7">
+        <f>_xll.cmdty.StorageIntrinsicValue(ValDate,StorageStart,StorageEnd,K5:N24,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,B21:C97,,GridSpacing)</f>
+        <v>28160.178279742478</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,13 +495,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>43678</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
@@ -497,13 +529,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>43710</v>
       </c>
+      <c r="E5" s="8">
+        <f t="array" ref="E5:F85">_xll.cmdty.StorageIntrinsicDecisionProfile(ValDate,StorageStart,StorageEnd,K5:N24,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,B21:C97,,GridSpacing)</f>
+        <v>43702</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-500</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUM($F$5:F5)+CurrentInventory</f>
+        <v>0</v>
+      </c>
       <c r="K5" s="3">
         <v>43702</v>
       </c>
@@ -517,7 +560,17 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="8">
+        <v>43703</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1355.9999999999998</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUM($F$5:F6)+CurrentInventory</f>
+        <v>1355.9999999999998</v>
+      </c>
       <c r="K6" s="3">
         <v>43702</v>
       </c>
@@ -525,16 +578,26 @@
         <v>6000</v>
       </c>
       <c r="M6" s="5">
-        <v>1306</v>
+        <v>1265</v>
       </c>
       <c r="N6" s="5">
         <v>1689</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="8">
+        <v>43704</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1323.0752695520002</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUM($F$5:F7)+CurrentInventory</f>
+        <v>2679.075269552</v>
+      </c>
       <c r="K7" s="3">
         <v>43702</v>
       </c>
@@ -548,13 +611,23 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>0.1</v>
       </c>
+      <c r="E8" s="8">
+        <v>43705</v>
+      </c>
+      <c r="F8" s="7">
+        <v>973.19242835497414</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM($F$5:F8)+CurrentInventory</f>
+        <v>3652.2676979069743</v>
+      </c>
       <c r="K8" s="3">
         <v>43702</v>
       </c>
@@ -568,18 +641,28 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>1E-4</v>
       </c>
+      <c r="E9" s="8">
+        <v>43706</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUM($F$5:F9)+CurrentInventory</f>
+        <v>3652.2676979069743</v>
+      </c>
       <c r="K9" s="3">
         <v>43705</v>
       </c>
       <c r="L9" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M9" s="5">
         <v>1005</v>
@@ -588,12 +671,22 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="8">
+        <v>43707</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-1635.0263865457559</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM($F$5:F10)+CurrentInventory</f>
+        <v>2017.2413113612183</v>
+      </c>
       <c r="K10" s="3">
         <v>43705</v>
       </c>
       <c r="L10" s="5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M10" s="5">
         <v>958</v>
@@ -602,15 +695,25 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E11" s="8">
+        <v>43708</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-1586.979637395083</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM($F$5:F11)+CurrentInventory</f>
+        <v>430.26167396613528</v>
+      </c>
       <c r="K11" s="3">
         <v>43705</v>
       </c>
       <c r="L11" s="5">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M11" s="5">
         <v>910</v>
@@ -619,13 +722,23 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>0.45</v>
       </c>
+      <c r="E12" s="8">
+        <v>43709</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-430.26167396613528</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM($F$5:F12)+CurrentInventory</f>
+        <v>0</v>
+      </c>
       <c r="K12" s="3">
         <v>43709</v>
       </c>
@@ -639,13 +752,23 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="E13" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="7" t="e">
+        <f>SUM($F$5:F13)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
       <c r="K13" s="3">
         <v>43709</v>
       </c>
@@ -659,7 +782,17 @@
         <v>1638.33</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="7" t="e">
+        <f>SUM($F$5:F14)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
       <c r="K14" s="3">
         <v>43709</v>
       </c>
@@ -673,13 +806,23 @@
         <v>1659.6699999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>500</v>
       </c>
+      <c r="E15" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="7" t="e">
+        <f>SUM($F$5:F15)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
       <c r="K15" s="3">
         <v>43709</v>
       </c>
@@ -693,103 +836,193 @@
         <v>1730.48</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="7" t="e">
+        <f>SUM($F$5:F16)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
+      </c>
+      <c r="E17" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="7" t="e">
+        <f>SUM($F$5:F17)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f>SUM($F$5:F18)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E19" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="7" t="e">
+        <f>SUM($F$5:F19)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="E20" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f>SUM($F$5:F20)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>43702</v>
       </c>
       <c r="C21" s="4">
         <v>50.640695748227039</v>
+      </c>
+      <c r="E21" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f>SUM($F$5:F21)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f>B21+1</f>
         <v>43703</v>
       </c>
       <c r="C22" s="4">
         <v>49.700092287036142</v>
+      </c>
+      <c r="E22" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="7" t="e">
+        <f>SUM($F$5:F22)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" ref="B23:B30" si="0">B22+1</f>
         <v>43704</v>
       </c>
       <c r="C23" s="4">
         <v>49.035222594048932</v>
+      </c>
+      <c r="E23" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="7" t="e">
+        <f>SUM($F$5:F23)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>43705</v>
       </c>
       <c r="C24" s="4">
         <v>49.257364798794171</v>
+      </c>
+      <c r="E24" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="7" t="e">
+        <f>SUM($F$5:F24)+CurrentInventory</f>
+        <v>#N/A</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>43706</v>
@@ -797,8 +1030,18 @@
       <c r="C25" s="4">
         <v>50.16228238269035</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E25" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="7" t="e">
+        <f>SUM($F$5:F25)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>43707</v>
@@ -806,8 +1049,18 @@
       <c r="C26" s="4">
         <v>50.917998292344571</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E26" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="7" t="e">
+        <f>SUM($F$5:F26)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>43708</v>
@@ -815,8 +1068,18 @@
       <c r="C27" s="4">
         <v>50.829710805583225</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E27" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="7" t="e">
+        <f>SUM($F$5:F27)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -824,8 +1087,18 @@
       <c r="C28" s="4">
         <v>49.978591030576084</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="7" t="e">
+        <f>SUM($F$5:F28)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>43710</v>
@@ -833,8 +1106,18 @@
       <c r="C29" s="4">
         <v>49.147154563324776</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E29" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="7" t="e">
+        <f>SUM($F$5:F29)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>43711</v>
@@ -842,272 +1125,832 @@
       <c r="C30" s="4">
         <v>49.099820257454425</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E30" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="7" t="e">
+        <f>SUM($F$5:F30)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E31" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="7" t="e">
+        <f>SUM($F$5:F31)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E32" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="7" t="e">
+        <f>SUM($F$5:F32)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E33" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="7" t="e">
+        <f>SUM($F$5:F33)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E34" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="7" t="e">
+        <f>SUM($F$5:F34)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E35" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f>SUM($F$5:F35)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E36" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f>SUM($F$5:F36)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E37" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="7" t="e">
+        <f>SUM($F$5:F37)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E38" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f>SUM($F$5:F38)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E39" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="7" t="e">
+        <f>SUM($F$5:F39)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E40" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F40" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="7" t="e">
+        <f>SUM($F$5:F40)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E41" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G41" s="7" t="e">
+        <f>SUM($F$5:F41)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E42" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="7" t="e">
+        <f>SUM($F$5:F42)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E43" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="7" t="e">
+        <f>SUM($F$5:F43)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E44" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="7" t="e">
+        <f>SUM($F$5:F44)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E45" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="7" t="e">
+        <f>SUM($F$5:F45)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E46" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="7" t="e">
+        <f>SUM($F$5:F46)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E47" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="7" t="e">
+        <f>SUM($F$5:F47)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E48" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F48" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G48" s="7" t="e">
+        <f>SUM($F$5:F48)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E49" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F49" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="7" t="e">
+        <f>SUM($F$5:F49)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E50" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F50" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="7" t="e">
+        <f>SUM($F$5:F50)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E51" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F51" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="7" t="e">
+        <f>SUM($F$5:F51)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E52" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F52" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="7" t="e">
+        <f>SUM($F$5:F52)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E53" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F53" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="7" t="e">
+        <f>SUM($F$5:F53)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E54" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F54" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" s="7" t="e">
+        <f>SUM($F$5:F54)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E55" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F55" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="7" t="e">
+        <f>SUM($F$5:F55)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E56" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="7" t="e">
+        <f>SUM($F$5:F56)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E57" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F57" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G57" s="7" t="e">
+        <f>SUM($F$5:F57)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E58" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="7" t="e">
+        <f>SUM($F$5:F58)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E59" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F59" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="7" t="e">
+        <f>SUM($F$5:F59)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E60" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="7" t="e">
+        <f>SUM($F$5:F60)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E61" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="7" t="e">
+        <f>SUM($F$5:F61)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E62" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="7" t="e">
+        <f>SUM($F$5:F62)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E63" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="7" t="e">
+        <f>SUM($F$5:F63)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E64" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="7" t="e">
+        <f>SUM($F$5:F64)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E65" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="7" t="e">
+        <f>SUM($F$5:F65)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E66" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G66" s="7" t="e">
+        <f>SUM($F$5:F66)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E67" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="7" t="e">
+        <f>SUM($F$5:F67)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E68" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="7" t="e">
+        <f>SUM($F$5:F68)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E69" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="7" t="e">
+        <f>SUM($F$5:F69)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E70" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="7" t="e">
+        <f>SUM($F$5:F70)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E71" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G71" s="7" t="e">
+        <f>SUM($F$5:F71)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E72" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="7" t="e">
+        <f>SUM($F$5:F72)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E73" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F73" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G73" s="7" t="e">
+        <f>SUM($F$5:F73)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E74" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F74" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G74" s="7" t="e">
+        <f>SUM($F$5:F74)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E75" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F75" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="7" t="e">
+        <f>SUM($F$5:F75)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E76" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G76" s="7" t="e">
+        <f>SUM($F$5:F76)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E77" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G77" s="7" t="e">
+        <f>SUM($F$5:F77)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E78" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G78" s="7" t="e">
+        <f>SUM($F$5:F78)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E79" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F79" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G79" s="7" t="e">
+        <f>SUM($F$5:F79)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E80" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F80" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G80" s="7" t="e">
+        <f>SUM($F$5:F80)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E81" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F81" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G81" s="7" t="e">
+        <f>SUM($F$5:F81)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E82" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F82" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G82" s="7" t="e">
+        <f>SUM($F$5:F82)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E83" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F83" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G83" s="7" t="e">
+        <f>SUM($F$5:F83)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E84" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G84" s="7" t="e">
+        <f>SUM($F$5:F84)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E85" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="7" t="e">
+        <f>SUM($F$5:F85)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
     </row>

--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133F8CE-C3A1-4C9D-AE8B-0DD6C7A924A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F5B85-BF0F-4967-9C4E-9B8B03892188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intrinsic_daily" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="CurrentInventory">intrinsic_daily!$C$15</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Valuation Date</t>
   </si>
@@ -95,13 +96,16 @@
   <si>
     <t>Inject/Withdraw</t>
   </si>
+  <si>
+    <t>Storage Add-in Version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -166,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -175,7 +179,8 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -460,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,4 +1963,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FAECC-9A00-42A4-9A91-44F0AC0942A7}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>_xll.cmdty.StorageAddInVersion()</f>
+        <v>0.1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F5B85-BF0F-4967-9C4E-9B8B03892188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCA4E19-1482-4388-A685-097084C1ECF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intrinsic_daily" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="F1" s="7">
         <f>_xll.cmdty.StorageIntrinsicValue(ValDate,StorageStart,StorageEnd,K5:N24,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,B21:C97,,GridSpacing)</f>
-        <v>28160.178279742478</v>
+        <v>28157.587119216052</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -862,7 +862,8 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>100</v>
+        <f>MAX(L5:L24)/100</f>
+        <v>120</v>
       </c>
       <c r="E17" s="8" t="e">
         <v>#N/A</v>
@@ -1969,7 +1970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FAECC-9A00-42A4-9A91-44F0AC0942A7}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DF7510-C048-4C9E-A119-C46CF9AA378A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F361F0-C90F-4915-B150-CC52FC95785A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="B2:P1596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="O4" s="7">
-        <f t="array" ref="O4">_xll.cmdty.StorageIntrinsicValue(ValDate,StorageStart,StorageEnd,I5:L290,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,E21:F1596,,GridSpacing)</f>
+        <f>_xll.cmdty.StorageIntrinsicValue(ValDate,StorageStart,StorageEnd,I5:L290,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,E21:F1596,,GridSpacing)</f>
         <v>293247.11229444161</v>
       </c>
     </row>

--- a/samples/excel/storage_samples.xlsx
+++ b/samples/excel/storage_samples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F361F0-C90F-4915-B150-CC52FC95785A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6368E-E093-4C0A-8A1C-00F7B8DB62C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <definedName name="GridSpacing">intrinsic_daily!$F$17</definedName>
     <definedName name="InjectCmdtyConsumed">intrinsic_daily!$F$9</definedName>
     <definedName name="InjectCostRate">intrinsic_daily!$F$8</definedName>
+    <definedName name="NumericalTolerance">intrinsic_daily!$F$18</definedName>
     <definedName name="StorageEnd">intrinsic_daily!$F$5</definedName>
     <definedName name="StorageStart">intrinsic_daily!$F$4</definedName>
     <definedName name="ValDate">intrinsic_daily!$F$2</definedName>
@@ -69,12 +70,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{DD5DDC05-A689-48A9-9C7B-42D7AD98B8EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leave empty to default to 1E-10.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Valuation Date</t>
   </si>
@@ -140,6 +154,9 @@
   </si>
   <si>
     <t>Calculation Results</t>
+  </si>
+  <si>
+    <t>Numerical Tolerance</t>
   </si>
 </sst>
 </file>
@@ -518,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P1596"/>
+  <dimension ref="B2:P1597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +546,7 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
@@ -594,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="O4" s="7">
-        <f>_xll.cmdty.StorageIntrinsicValue(ValDate,StorageStart,StorageEnd,I5:L290,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,E21:F1596,,GridSpacing)</f>
+        <f>_xll.cmdty.StorageIntrinsicValue(ValDate,StorageStart,StorageEnd,I5:L290,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,E22:F1597,,GridSpacing,NumericalTolerance)</f>
         <v>293247.11229444161</v>
       </c>
     </row>
@@ -708,7 +725,7 @@
         <v>1784</v>
       </c>
       <c r="N8" s="8">
-        <f t="array" ref="N8:O1596">_xll.cmdty.StorageIntrinsicDecisionProfile(ValDate,StorageStart,StorageEnd,I5:L290,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,E21:F1596,,GridSpacing)</f>
+        <f t="array" ref="N8:O1596">_xll.cmdty.StorageIntrinsicDecisionProfile(ValDate,StorageStart,StorageEnd,I5:L290,InjectCostRate,InjectCmdtyConsumed,WithdrawCostRate,WithdrawCmdtyConsumed,CurrentInventory,E22:F1597,,GridSpacing,F18)</f>
         <v>43702</v>
       </c>
       <c r="O8" s="7">
@@ -1032,6 +1049,10 @@
       <c r="C18" s="4">
         <v>56.597999999999999</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1055,9 +1076,6 @@
       <c r="C19" s="4">
         <v>59.54</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1082,10 +1100,7 @@
         <v>60.65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
@@ -1110,13 +1125,11 @@
       <c r="C21" s="4">
         <v>62.64</v>
       </c>
-      <c r="E21" s="8">
-        <f>B4</f>
-        <v>43702</v>
-      </c>
-      <c r="F21" s="7">
-        <f>VLOOKUP(E21,$B$4:$C$97, 2,TRUE)</f>
-        <v>50.640695748227039</v>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
@@ -1142,12 +1155,12 @@
         <v>63.58</v>
       </c>
       <c r="E22" s="8">
-        <f>IF(E21+1&gt;MAX($B$4:$B$97), NA(), E21+1)</f>
-        <v>43703</v>
+        <f>B4</f>
+        <v>43702</v>
       </c>
       <c r="F22" s="7">
         <f>VLOOKUP(E22,$B$4:$C$97, 2,TRUE)</f>
-        <v>49.700092287036142</v>
+        <v>50.640695748227039</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
@@ -1173,11 +1186,11 @@
         <v>61</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ref="E23:E86" si="1">IF(E22+1&gt;MAX($B$4:$B$97), NA(), E22+1)</f>
-        <v>43704</v>
+        <f>IF(E22+1&gt;MAX($B$4:$B$97), NA(), E22+1)</f>
+        <v>43703</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" ref="F23:F86" si="2">VLOOKUP(E23,$B$4:$C$97, 2,TRUE)</f>
+        <f>VLOOKUP(E23,$B$4:$C$97, 2,TRUE)</f>
         <v>49.700092287036142</v>
       </c>
       <c r="I23" s="3"/>
@@ -1204,11 +1217,11 @@
         <v>58.65</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="1"/>
-        <v>43705</v>
+        <f t="shared" ref="E24:E87" si="1">IF(E23+1&gt;MAX($B$4:$B$97), NA(), E23+1)</f>
+        <v>43704</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F24:F87" si="2">VLOOKUP(E24,$B$4:$C$97, 2,TRUE)</f>
         <v>49.700092287036142</v>
       </c>
       <c r="I24" s="3"/>
@@ -1236,7 +1249,7 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
-        <v>43706</v>
+        <v>43705</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="2"/>
@@ -1262,7 +1275,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="2"/>
@@ -1288,7 +1301,7 @@
       <c r="C27" s="4"/>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
-        <v>43708</v>
+        <v>43707</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
@@ -1314,11 +1327,11 @@
       <c r="C28" s="4"/>
       <c r="E28" s="8">
         <f t="shared" si="1"/>
-        <v>43709</v>
+        <v>43708</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>52.68</v>
+        <v>49.700092287036142</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
@@ -1340,7 +1353,7 @@
       <c r="C29" s="4"/>
       <c r="E29" s="8">
         <f t="shared" si="1"/>
-        <v>43710</v>
+        <v>43709</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
@@ -1366,7 +1379,7 @@
       <c r="C30" s="4"/>
       <c r="E30" s="8">
         <f t="shared" si="1"/>
-        <v>43711</v>
+        <v>43710</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
@@ -1392,7 +1405,7 @@
       <c r="C31" s="4"/>
       <c r="E31" s="8">
         <f t="shared" si="1"/>
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
@@ -1418,7 +1431,7 @@
       <c r="C32" s="4"/>
       <c r="E32" s="8">
         <f t="shared" si="1"/>
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="2"/>
@@ -1444,7 +1457,7 @@
       <c r="C33" s="4"/>
       <c r="E33" s="8">
         <f t="shared" si="1"/>
-        <v>43714</v>
+        <v>43713</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="2"/>
@@ -1470,7 +1483,7 @@
       <c r="C34" s="4"/>
       <c r="E34" s="8">
         <f t="shared" si="1"/>
-        <v>43715</v>
+        <v>43714</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="2"/>
@@ -1496,7 +1509,7 @@
       <c r="C35" s="4"/>
       <c r="E35" s="8">
         <f t="shared" si="1"/>
-        <v>43716</v>
+        <v>43715</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="2"/>
@@ -1522,7 +1535,7 @@
       <c r="C36" s="4"/>
       <c r="E36" s="8">
         <f t="shared" si="1"/>
-        <v>43717</v>
+        <v>43716</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="2"/>
@@ -1548,7 +1561,7 @@
       <c r="C37" s="4"/>
       <c r="E37" s="8">
         <f t="shared" si="1"/>
-        <v>43718</v>
+        <v>43717</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="2"/>
@@ -1574,7 +1587,7 @@
       <c r="C38" s="4"/>
       <c r="E38" s="8">
         <f t="shared" si="1"/>
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="2"/>
@@ -1600,7 +1613,7 @@
       <c r="C39" s="4"/>
       <c r="E39" s="8">
         <f t="shared" si="1"/>
-        <v>43720</v>
+        <v>43719</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="2"/>
@@ -1626,7 +1639,7 @@
       <c r="C40" s="4"/>
       <c r="E40" s="8">
         <f t="shared" si="1"/>
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="2"/>
@@ -1652,7 +1665,7 @@
       <c r="C41" s="4"/>
       <c r="E41" s="8">
         <f t="shared" si="1"/>
-        <v>43722</v>
+        <v>43721</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="2"/>
@@ -1678,7 +1691,7 @@
       <c r="C42" s="4"/>
       <c r="E42" s="8">
         <f t="shared" si="1"/>
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="2"/>
@@ -1704,7 +1717,7 @@
       <c r="C43" s="4"/>
       <c r="E43" s="8">
         <f t="shared" si="1"/>
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="2"/>
@@ -1730,7 +1743,7 @@
       <c r="C44" s="4"/>
       <c r="E44" s="8">
         <f t="shared" si="1"/>
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="2"/>
@@ -1756,7 +1769,7 @@
       <c r="C45" s="4"/>
       <c r="E45" s="8">
         <f t="shared" si="1"/>
-        <v>43726</v>
+        <v>43725</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="2"/>
@@ -1782,7 +1795,7 @@
       <c r="C46" s="4"/>
       <c r="E46" s="8">
         <f t="shared" si="1"/>
-        <v>43727</v>
+        <v>43726</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="2"/>
@@ -1808,7 +1821,7 @@
       <c r="C47" s="4"/>
       <c r="E47" s="8">
         <f t="shared" si="1"/>
-        <v>43728</v>
+        <v>43727</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="2"/>
@@ -1834,7 +1847,7 @@
       <c r="C48" s="4"/>
       <c r="E48" s="8">
         <f t="shared" si="1"/>
-        <v>43729</v>
+        <v>43728</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="2"/>
@@ -1860,7 +1873,7 @@
       <c r="C49" s="4"/>
       <c r="E49" s="8">
         <f t="shared" si="1"/>
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="2"/>
@@ -1886,7 +1899,7 @@
       <c r="C50" s="4"/>
       <c r="E50" s="8">
         <f t="shared" si="1"/>
-        <v>43731</v>
+        <v>43730</v>
       </c>
       <c r="F50" s="7">
         <f t="shared" si="2"/>
@@ -1912,7 +1925,7 @@
       <c r="C51" s="4"/>
       <c r="E51" s="8">
         <f t="shared" si="1"/>
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="2"/>
@@ -1938,7 +1951,7 @@
       <c r="C52" s="4"/>
       <c r="E52" s="8">
         <f t="shared" si="1"/>
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="2"/>
@@ -1964,7 +1977,7 @@
       <c r="C53" s="4"/>
       <c r="E53" s="8">
         <f t="shared" si="1"/>
-        <v>43734</v>
+        <v>43733</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="2"/>
@@ -1990,7 +2003,7 @@
       <c r="C54" s="4"/>
       <c r="E54" s="8">
         <f t="shared" si="1"/>
-        <v>43735</v>
+        <v>43734</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="2"/>
@@ -2016,7 +2029,7 @@
       <c r="C55" s="4"/>
       <c r="E55" s="8">
         <f t="shared" si="1"/>
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="2"/>
@@ -2042,7 +2055,7 @@
       <c r="C56" s="4"/>
       <c r="E56" s="8">
         <f t="shared" si="1"/>
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="2"/>
@@ -2068,7 +2081,7 @@
       <c r="C57" s="4"/>
       <c r="E57" s="8">
         <f t="shared" si="1"/>
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="2"/>
@@ -2094,11 +2107,11 @@
       <c r="C58" s="4"/>
       <c r="E58" s="8">
         <f t="shared" si="1"/>
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="F58" s="7">
         <f t="shared" si="2"/>
-        <v>55.87</v>
+        <v>52.68</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
@@ -2120,7 +2133,7 @@
       <c r="C59" s="4"/>
       <c r="E59" s="8">
         <f t="shared" si="1"/>
-        <v>43740</v>
+        <v>43739</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="2"/>
@@ -2146,7 +2159,7 @@
       <c r="C60" s="4"/>
       <c r="E60" s="8">
         <f t="shared" si="1"/>
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="2"/>
@@ -2172,7 +2185,7 @@
       <c r="C61" s="4"/>
       <c r="E61" s="8">
         <f t="shared" si="1"/>
-        <v>43742</v>
+        <v>43741</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="2"/>
@@ -2198,7 +2211,7 @@
       <c r="C62" s="4"/>
       <c r="E62" s="8">
         <f t="shared" si="1"/>
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="2"/>
@@ -2224,7 +2237,7 @@
       <c r="C63" s="4"/>
       <c r="E63" s="8">
         <f t="shared" si="1"/>
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="2"/>
@@ -2250,7 +2263,7 @@
       <c r="C64" s="4"/>
       <c r="E64" s="8">
         <f t="shared" si="1"/>
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="2"/>
@@ -2276,7 +2289,7 @@
       <c r="C65" s="4"/>
       <c r="E65" s="8">
         <f t="shared" si="1"/>
-        <v>43746</v>
+        <v>43745</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="2"/>
@@ -2302,7 +2315,7 @@
       <c r="C66" s="4"/>
       <c r="E66" s="8">
         <f t="shared" si="1"/>
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="F66" s="7">
         <f t="shared" si="2"/>
@@ -2328,7 +2341,7 @@
       <c r="C67" s="4"/>
       <c r="E67" s="8">
         <f t="shared" si="1"/>
-        <v>43748</v>
+        <v>43747</v>
       </c>
       <c r="F67" s="7">
         <f t="shared" si="2"/>
@@ -2354,7 +2367,7 @@
       <c r="C68" s="4"/>
       <c r="E68" s="8">
         <f t="shared" si="1"/>
-        <v>43749</v>
+        <v>43748</v>
       </c>
       <c r="F68" s="7">
         <f t="shared" si="2"/>
@@ -2380,7 +2393,7 @@
       <c r="C69" s="4"/>
       <c r="E69" s="8">
         <f t="shared" si="1"/>
-        <v>43750</v>
+        <v>43749</v>
       </c>
       <c r="F69" s="7">
         <f t="shared" si="2"/>
@@ -2406,7 +2419,7 @@
       <c r="C70" s="4"/>
       <c r="E70" s="8">
         <f t="shared" si="1"/>
-        <v>43751</v>
+        <v>43750</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="2"/>
@@ -2432,7 +2445,7 @@
       <c r="C71" s="4"/>
       <c r="E71" s="8">
         <f t="shared" si="1"/>
-        <v>43752</v>
+        <v>43751</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" si="2"/>
@@ -2458,7 +2471,7 @@
       <c r="C72" s="4"/>
       <c r="E72" s="8">
         <f t="shared" si="1"/>
-        <v>43753</v>
+        <v>43752</v>
       </c>
       <c r="F72" s="7">
         <f t="shared" si="2"/>
@@ -2484,7 +2497,7 @@
       <c r="C73" s="4"/>
       <c r="E73" s="8">
         <f t="shared" si="1"/>
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="2"/>
@@ -2510,7 +2523,7 @@
       <c r="C74" s="4"/>
       <c r="E74" s="8">
         <f t="shared" si="1"/>
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="F74" s="7">
         <f t="shared" si="2"/>
@@ -2536,7 +2549,7 @@
       <c r="C75" s="4"/>
       <c r="E75" s="8">
         <f t="shared" si="1"/>
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="2"/>
@@ -2562,7 +2575,7 @@
       <c r="C76" s="4"/>
       <c r="E76" s="8">
         <f t="shared" si="1"/>
-        <v>43757</v>
+        <v>43756</v>
       </c>
       <c r="F76" s="7">
         <f t="shared" si="2"/>
@@ -2588,7 +2601,7 @@
       <c r="C77" s="4"/>
       <c r="E77" s="8">
         <f t="shared" si="1"/>
-        <v>43758</v>
+        <v>43757</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" si="2"/>
@@ -2614,7 +2627,7 @@
       <c r="C78" s="4"/>
       <c r="E78" s="8">
         <f t="shared" si="1"/>
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="F78" s="7">
         <f t="shared" si="2"/>
@@ -2640,7 +2653,7 @@
       <c r="C79" s="4"/>
       <c r="E79" s="8">
         <f t="shared" si="1"/>
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="F79" s="7">
         <f t="shared" si="2"/>
@@ -2666,7 +2679,7 @@
       <c r="C80" s="4"/>
       <c r="E80" s="8">
         <f t="shared" si="1"/>
-        <v>43761</v>
+        <v>43760</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="2"/>
@@ -2692,7 +2705,7 @@
       <c r="C81" s="4"/>
       <c r="E81" s="8">
         <f t="shared" si="1"/>
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="F81" s="7">
         <f t="shared" si="2"/>
@@ -2718,7 +2731,7 @@
       <c r="C82" s="4"/>
       <c r="E82" s="8">
         <f t="shared" si="1"/>
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="F82" s="7">
         <f t="shared" si="2"/>
@@ -2744,7 +2757,7 @@
       <c r="C83" s="4"/>
       <c r="E83" s="8">
         <f t="shared" si="1"/>
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="F83" s="7">
         <f t="shared" si="2"/>
@@ -2770,7 +2783,7 @@
       <c r="C84" s="4"/>
       <c r="E84" s="8">
         <f t="shared" si="1"/>
-        <v>43765</v>
+        <v>43764</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="2"/>
@@ -2796,7 +2809,7 @@
       <c r="C85" s="4"/>
       <c r="E85" s="8">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43765</v>
       </c>
       <c r="F85" s="7">
         <f t="shared" si="2"/>
@@ -2822,7 +2835,7 @@
       <c r="C86" s="4"/>
       <c r="E86" s="8">
         <f t="shared" si="1"/>
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="F86" s="7">
         <f t="shared" si="2"/>
@@ -2847,11 +2860,11 @@
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
       <c r="E87" s="8">
-        <f t="shared" ref="E87:E150" si="3">IF(E86+1&gt;MAX($B$4:$B$97), NA(), E86+1)</f>
-        <v>43768</v>
+        <f t="shared" si="1"/>
+        <v>43767</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" ref="F87:F150" si="4">VLOOKUP(E87,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>55.87</v>
       </c>
       <c r="I87" s="3"/>
@@ -2873,11 +2886,11 @@
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
       <c r="E88" s="8">
-        <f t="shared" si="3"/>
-        <v>43769</v>
+        <f t="shared" ref="E88:E151" si="3">IF(E87+1&gt;MAX($B$4:$B$97), NA(), E87+1)</f>
+        <v>43768</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F88:F151" si="4">VLOOKUP(E88,$B$4:$C$97, 2,TRUE)</f>
         <v>55.87</v>
       </c>
       <c r="I88" s="3"/>
@@ -2900,11 +2913,11 @@
       <c r="C89" s="4"/>
       <c r="E89" s="8">
         <f t="shared" si="3"/>
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="F89" s="7">
         <f t="shared" si="4"/>
-        <v>57.89</v>
+        <v>55.87</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
@@ -2926,7 +2939,7 @@
       <c r="C90" s="4"/>
       <c r="E90" s="8">
         <f t="shared" si="3"/>
-        <v>43771</v>
+        <v>43770</v>
       </c>
       <c r="F90" s="7">
         <f t="shared" si="4"/>
@@ -2952,7 +2965,7 @@
       <c r="C91" s="4"/>
       <c r="E91" s="8">
         <f t="shared" si="3"/>
-        <v>43772</v>
+        <v>43771</v>
       </c>
       <c r="F91" s="7">
         <f t="shared" si="4"/>
@@ -2978,7 +2991,7 @@
       <c r="C92" s="4"/>
       <c r="E92" s="8">
         <f t="shared" si="3"/>
-        <v>43773</v>
+        <v>43772</v>
       </c>
       <c r="F92" s="7">
         <f t="shared" si="4"/>
@@ -3004,7 +3017,7 @@
       <c r="C93" s="4"/>
       <c r="E93" s="8">
         <f t="shared" si="3"/>
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="F93" s="7">
         <f t="shared" si="4"/>
@@ -3030,7 +3043,7 @@
       <c r="C94" s="4"/>
       <c r="E94" s="8">
         <f t="shared" si="3"/>
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="4"/>
@@ -3056,7 +3069,7 @@
       <c r="C95" s="4"/>
       <c r="E95" s="8">
         <f t="shared" si="3"/>
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="F95" s="7">
         <f t="shared" si="4"/>
@@ -3082,7 +3095,7 @@
       <c r="C96" s="4"/>
       <c r="E96" s="8">
         <f t="shared" si="3"/>
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="F96" s="7">
         <f t="shared" si="4"/>
@@ -3108,7 +3121,7 @@
       <c r="C97" s="4"/>
       <c r="E97" s="8">
         <f t="shared" si="3"/>
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="F97" s="7">
         <f t="shared" si="4"/>
@@ -3132,7 +3145,7 @@
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E98" s="8">
         <f t="shared" si="3"/>
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="F98" s="7">
         <f t="shared" si="4"/>
@@ -3156,7 +3169,7 @@
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E99" s="8">
         <f t="shared" si="3"/>
-        <v>43780</v>
+        <v>43779</v>
       </c>
       <c r="F99" s="7">
         <f t="shared" si="4"/>
@@ -3180,7 +3193,7 @@
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E100" s="8">
         <f t="shared" si="3"/>
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" si="4"/>
@@ -3204,7 +3217,7 @@
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E101" s="8">
         <f t="shared" si="3"/>
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="4"/>
@@ -3228,7 +3241,7 @@
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E102" s="8">
         <f t="shared" si="3"/>
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="4"/>
@@ -3252,7 +3265,7 @@
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E103" s="8">
         <f t="shared" si="3"/>
-        <v>43784</v>
+        <v>43783</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="4"/>
@@ -3276,7 +3289,7 @@
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E104" s="8">
         <f t="shared" si="3"/>
-        <v>43785</v>
+        <v>43784</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="4"/>
@@ -3300,7 +3313,7 @@
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E105" s="8">
         <f t="shared" si="3"/>
-        <v>43786</v>
+        <v>43785</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="4"/>
@@ -3324,7 +3337,7 @@
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E106" s="8">
         <f t="shared" si="3"/>
-        <v>43787</v>
+        <v>43786</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="4"/>
@@ -3348,7 +3361,7 @@
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E107" s="8">
         <f t="shared" si="3"/>
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="F107" s="7">
         <f t="shared" si="4"/>
@@ -3372,7 +3385,7 @@
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E108" s="8">
         <f t="shared" si="3"/>
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="F108" s="7">
         <f t="shared" si="4"/>
@@ -3396,7 +3409,7 @@
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E109" s="8">
         <f t="shared" si="3"/>
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="4"/>
@@ -3420,7 +3433,7 @@
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E110" s="8">
         <f t="shared" si="3"/>
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="F110" s="7">
         <f t="shared" si="4"/>
@@ -3444,7 +3457,7 @@
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E111" s="8">
         <f t="shared" si="3"/>
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="4"/>
@@ -3468,7 +3481,7 @@
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E112" s="8">
         <f t="shared" si="3"/>
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="F112" s="7">
         <f t="shared" si="4"/>
@@ -3492,7 +3505,7 @@
     <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113" s="8">
         <f t="shared" si="3"/>
-        <v>43794</v>
+        <v>43793</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="4"/>
@@ -3516,7 +3529,7 @@
     <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114" s="8">
         <f t="shared" si="3"/>
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="F114" s="7">
         <f t="shared" si="4"/>
@@ -3540,7 +3553,7 @@
     <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115" s="8">
         <f t="shared" si="3"/>
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="4"/>
@@ -3564,7 +3577,7 @@
     <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E116" s="8">
         <f t="shared" si="3"/>
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="F116" s="7">
         <f t="shared" si="4"/>
@@ -3588,7 +3601,7 @@
     <row r="117" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E117" s="8">
         <f t="shared" si="3"/>
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="F117" s="7">
         <f t="shared" si="4"/>
@@ -3612,7 +3625,7 @@
     <row r="118" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E118" s="8">
         <f t="shared" si="3"/>
-        <v>43799</v>
+        <v>43798</v>
       </c>
       <c r="F118" s="7">
         <f t="shared" si="4"/>
@@ -3636,11 +3649,11 @@
     <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119" s="8">
         <f t="shared" si="3"/>
-        <v>43800</v>
+        <v>43799</v>
       </c>
       <c r="F119" s="7">
         <f t="shared" si="4"/>
-        <v>59.48</v>
+        <v>57.89</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
@@ -3660,7 +3673,7 @@
     <row r="120" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E120" s="8">
         <f t="shared" si="3"/>
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="F120" s="7">
         <f t="shared" si="4"/>
@@ -3684,7 +3697,7 @@
     <row r="121" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E121" s="8">
         <f t="shared" si="3"/>
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="F121" s="7">
         <f t="shared" si="4"/>
@@ -3708,7 +3721,7 @@
     <row r="122" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E122" s="8">
         <f t="shared" si="3"/>
-        <v>43803</v>
+        <v>43802</v>
       </c>
       <c r="F122" s="7">
         <f t="shared" si="4"/>
@@ -3732,7 +3745,7 @@
     <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E123" s="8">
         <f t="shared" si="3"/>
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="F123" s="7">
         <f t="shared" si="4"/>
@@ -3756,7 +3769,7 @@
     <row r="124" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E124" s="8">
         <f t="shared" si="3"/>
-        <v>43805</v>
+        <v>43804</v>
       </c>
       <c r="F124" s="7">
         <f t="shared" si="4"/>
@@ -3780,7 +3793,7 @@
     <row r="125" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E125" s="8">
         <f t="shared" si="3"/>
-        <v>43806</v>
+        <v>43805</v>
       </c>
       <c r="F125" s="7">
         <f t="shared" si="4"/>
@@ -3804,7 +3817,7 @@
     <row r="126" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E126" s="8">
         <f t="shared" si="3"/>
-        <v>43807</v>
+        <v>43806</v>
       </c>
       <c r="F126" s="7">
         <f t="shared" si="4"/>
@@ -3828,7 +3841,7 @@
     <row r="127" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E127" s="8">
         <f t="shared" si="3"/>
-        <v>43808</v>
+        <v>43807</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" si="4"/>
@@ -3852,7 +3865,7 @@
     <row r="128" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E128" s="8">
         <f t="shared" si="3"/>
-        <v>43809</v>
+        <v>43808</v>
       </c>
       <c r="F128" s="7">
         <f t="shared" si="4"/>
@@ -3876,7 +3889,7 @@
     <row r="129" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E129" s="8">
         <f t="shared" si="3"/>
-        <v>43810</v>
+        <v>43809</v>
       </c>
       <c r="F129" s="7">
         <f t="shared" si="4"/>
@@ -3900,7 +3913,7 @@
     <row r="130" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E130" s="8">
         <f t="shared" si="3"/>
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="F130" s="7">
         <f t="shared" si="4"/>
@@ -3924,7 +3937,7 @@
     <row r="131" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E131" s="8">
         <f t="shared" si="3"/>
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="F131" s="7">
         <f t="shared" si="4"/>
@@ -3948,7 +3961,7 @@
     <row r="132" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E132" s="8">
         <f t="shared" si="3"/>
-        <v>43813</v>
+        <v>43812</v>
       </c>
       <c r="F132" s="7">
         <f t="shared" si="4"/>
@@ -3972,7 +3985,7 @@
     <row r="133" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E133" s="8">
         <f t="shared" si="3"/>
-        <v>43814</v>
+        <v>43813</v>
       </c>
       <c r="F133" s="7">
         <f t="shared" si="4"/>
@@ -3996,7 +4009,7 @@
     <row r="134" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E134" s="8">
         <f t="shared" si="3"/>
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="F134" s="7">
         <f t="shared" si="4"/>
@@ -4020,7 +4033,7 @@
     <row r="135" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E135" s="8">
         <f t="shared" si="3"/>
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="F135" s="7">
         <f t="shared" si="4"/>
@@ -4044,7 +4057,7 @@
     <row r="136" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E136" s="8">
         <f t="shared" si="3"/>
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="F136" s="7">
         <f t="shared" si="4"/>
@@ -4068,7 +4081,7 @@
     <row r="137" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E137" s="8">
         <f t="shared" si="3"/>
-        <v>43818</v>
+        <v>43817</v>
       </c>
       <c r="F137" s="7">
         <f t="shared" si="4"/>
@@ -4092,7 +4105,7 @@
     <row r="138" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E138" s="8">
         <f t="shared" si="3"/>
-        <v>43819</v>
+        <v>43818</v>
       </c>
       <c r="F138" s="7">
         <f t="shared" si="4"/>
@@ -4116,7 +4129,7 @@
     <row r="139" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E139" s="8">
         <f t="shared" si="3"/>
-        <v>43820</v>
+        <v>43819</v>
       </c>
       <c r="F139" s="7">
         <f t="shared" si="4"/>
@@ -4140,7 +4153,7 @@
     <row r="140" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E140" s="8">
         <f t="shared" si="3"/>
-        <v>43821</v>
+        <v>43820</v>
       </c>
       <c r="F140" s="7">
         <f t="shared" si="4"/>
@@ -4164,7 +4177,7 @@
     <row r="141" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E141" s="8">
         <f t="shared" si="3"/>
-        <v>43822</v>
+        <v>43821</v>
       </c>
       <c r="F141" s="7">
         <f t="shared" si="4"/>
@@ -4188,7 +4201,7 @@
     <row r="142" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E142" s="8">
         <f t="shared" si="3"/>
-        <v>43823</v>
+        <v>43822</v>
       </c>
       <c r="F142" s="7">
         <f t="shared" si="4"/>
@@ -4212,7 +4225,7 @@
     <row r="143" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E143" s="8">
         <f t="shared" si="3"/>
-        <v>43824</v>
+        <v>43823</v>
       </c>
       <c r="F143" s="7">
         <f t="shared" si="4"/>
@@ -4236,7 +4249,7 @@
     <row r="144" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E144" s="8">
         <f t="shared" si="3"/>
-        <v>43825</v>
+        <v>43824</v>
       </c>
       <c r="F144" s="7">
         <f t="shared" si="4"/>
@@ -4260,7 +4273,7 @@
     <row r="145" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E145" s="8">
         <f t="shared" si="3"/>
-        <v>43826</v>
+        <v>43825</v>
       </c>
       <c r="F145" s="7">
         <f t="shared" si="4"/>
@@ -4284,7 +4297,7 @@
     <row r="146" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E146" s="8">
         <f t="shared" si="3"/>
-        <v>43827</v>
+        <v>43826</v>
       </c>
       <c r="F146" s="7">
         <f t="shared" si="4"/>
@@ -4308,7 +4321,7 @@
     <row r="147" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E147" s="8">
         <f t="shared" si="3"/>
-        <v>43828</v>
+        <v>43827</v>
       </c>
       <c r="F147" s="7">
         <f t="shared" si="4"/>
@@ -4332,7 +4345,7 @@
     <row r="148" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E148" s="8">
         <f t="shared" si="3"/>
-        <v>43829</v>
+        <v>43828</v>
       </c>
       <c r="F148" s="7">
         <f t="shared" si="4"/>
@@ -4356,7 +4369,7 @@
     <row r="149" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E149" s="8">
         <f t="shared" si="3"/>
-        <v>43830</v>
+        <v>43829</v>
       </c>
       <c r="F149" s="7">
         <f t="shared" si="4"/>
@@ -4380,11 +4393,11 @@
     <row r="150" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E150" s="8">
         <f t="shared" si="3"/>
-        <v>43831</v>
+        <v>43830</v>
       </c>
       <c r="F150" s="7">
         <f t="shared" si="4"/>
-        <v>61.55</v>
+        <v>59.48</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
@@ -4403,11 +4416,11 @@
     </row>
     <row r="151" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E151" s="8">
-        <f t="shared" ref="E151:E214" si="5">IF(E150+1&gt;MAX($B$4:$B$97), NA(), E150+1)</f>
-        <v>43832</v>
+        <f t="shared" si="3"/>
+        <v>43831</v>
       </c>
       <c r="F151" s="7">
-        <f t="shared" ref="F151:F214" si="6">VLOOKUP(E151,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>61.55</v>
       </c>
       <c r="I151" s="3"/>
@@ -4427,11 +4440,11 @@
     </row>
     <row r="152" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E152" s="8">
-        <f t="shared" si="5"/>
-        <v>43833</v>
+        <f t="shared" ref="E152:E215" si="5">IF(E151+1&gt;MAX($B$4:$B$97), NA(), E151+1)</f>
+        <v>43832</v>
       </c>
       <c r="F152" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F152:F215" si="6">VLOOKUP(E152,$B$4:$C$97, 2,TRUE)</f>
         <v>61.55</v>
       </c>
       <c r="I152" s="3"/>
@@ -4452,7 +4465,7 @@
     <row r="153" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E153" s="8">
         <f t="shared" si="5"/>
-        <v>43834</v>
+        <v>43833</v>
       </c>
       <c r="F153" s="7">
         <f t="shared" si="6"/>
@@ -4476,7 +4489,7 @@
     <row r="154" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E154" s="8">
         <f t="shared" si="5"/>
-        <v>43835</v>
+        <v>43834</v>
       </c>
       <c r="F154" s="7">
         <f t="shared" si="6"/>
@@ -4500,7 +4513,7 @@
     <row r="155" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E155" s="8">
         <f t="shared" si="5"/>
-        <v>43836</v>
+        <v>43835</v>
       </c>
       <c r="F155" s="7">
         <f t="shared" si="6"/>
@@ -4524,7 +4537,7 @@
     <row r="156" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E156" s="8">
         <f t="shared" si="5"/>
-        <v>43837</v>
+        <v>43836</v>
       </c>
       <c r="F156" s="7">
         <f t="shared" si="6"/>
@@ -4548,7 +4561,7 @@
     <row r="157" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E157" s="8">
         <f t="shared" si="5"/>
-        <v>43838</v>
+        <v>43837</v>
       </c>
       <c r="F157" s="7">
         <f t="shared" si="6"/>
@@ -4572,7 +4585,7 @@
     <row r="158" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E158" s="8">
         <f t="shared" si="5"/>
-        <v>43839</v>
+        <v>43838</v>
       </c>
       <c r="F158" s="7">
         <f t="shared" si="6"/>
@@ -4596,7 +4609,7 @@
     <row r="159" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E159" s="8">
         <f t="shared" si="5"/>
-        <v>43840</v>
+        <v>43839</v>
       </c>
       <c r="F159" s="7">
         <f t="shared" si="6"/>
@@ -4620,7 +4633,7 @@
     <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E160" s="8">
         <f t="shared" si="5"/>
-        <v>43841</v>
+        <v>43840</v>
       </c>
       <c r="F160" s="7">
         <f t="shared" si="6"/>
@@ -4644,7 +4657,7 @@
     <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161" s="8">
         <f t="shared" si="5"/>
-        <v>43842</v>
+        <v>43841</v>
       </c>
       <c r="F161" s="7">
         <f t="shared" si="6"/>
@@ -4668,7 +4681,7 @@
     <row r="162" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E162" s="8">
         <f t="shared" si="5"/>
-        <v>43843</v>
+        <v>43842</v>
       </c>
       <c r="F162" s="7">
         <f t="shared" si="6"/>
@@ -4692,7 +4705,7 @@
     <row r="163" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E163" s="8">
         <f t="shared" si="5"/>
-        <v>43844</v>
+        <v>43843</v>
       </c>
       <c r="F163" s="7">
         <f t="shared" si="6"/>
@@ -4716,7 +4729,7 @@
     <row r="164" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E164" s="8">
         <f t="shared" si="5"/>
-        <v>43845</v>
+        <v>43844</v>
       </c>
       <c r="F164" s="7">
         <f t="shared" si="6"/>
@@ -4740,7 +4753,7 @@
     <row r="165" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E165" s="8">
         <f t="shared" si="5"/>
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="F165" s="7">
         <f t="shared" si="6"/>
@@ -4764,7 +4777,7 @@
     <row r="166" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E166" s="8">
         <f t="shared" si="5"/>
-        <v>43847</v>
+        <v>43846</v>
       </c>
       <c r="F166" s="7">
         <f t="shared" si="6"/>
@@ -4788,7 +4801,7 @@
     <row r="167" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E167" s="8">
         <f t="shared" si="5"/>
-        <v>43848</v>
+        <v>43847</v>
       </c>
       <c r="F167" s="7">
         <f t="shared" si="6"/>
@@ -4812,7 +4825,7 @@
     <row r="168" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E168" s="8">
         <f t="shared" si="5"/>
-        <v>43849</v>
+        <v>43848</v>
       </c>
       <c r="F168" s="7">
         <f t="shared" si="6"/>
@@ -4836,7 +4849,7 @@
     <row r="169" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E169" s="8">
         <f t="shared" si="5"/>
-        <v>43850</v>
+        <v>43849</v>
       </c>
       <c r="F169" s="7">
         <f t="shared" si="6"/>
@@ -4860,7 +4873,7 @@
     <row r="170" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E170" s="8">
         <f t="shared" si="5"/>
-        <v>43851</v>
+        <v>43850</v>
       </c>
       <c r="F170" s="7">
         <f t="shared" si="6"/>
@@ -4884,7 +4897,7 @@
     <row r="171" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E171" s="8">
         <f t="shared" si="5"/>
-        <v>43852</v>
+        <v>43851</v>
       </c>
       <c r="F171" s="7">
         <f t="shared" si="6"/>
@@ -4908,7 +4921,7 @@
     <row r="172" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E172" s="8">
         <f t="shared" si="5"/>
-        <v>43853</v>
+        <v>43852</v>
       </c>
       <c r="F172" s="7">
         <f t="shared" si="6"/>
@@ -4932,7 +4945,7 @@
     <row r="173" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E173" s="8">
         <f t="shared" si="5"/>
-        <v>43854</v>
+        <v>43853</v>
       </c>
       <c r="F173" s="7">
         <f t="shared" si="6"/>
@@ -4956,7 +4969,7 @@
     <row r="174" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E174" s="8">
         <f t="shared" si="5"/>
-        <v>43855</v>
+        <v>43854</v>
       </c>
       <c r="F174" s="7">
         <f t="shared" si="6"/>
@@ -4980,7 +4993,7 @@
     <row r="175" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E175" s="8">
         <f t="shared" si="5"/>
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="F175" s="7">
         <f t="shared" si="6"/>
@@ -5004,7 +5017,7 @@
     <row r="176" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E176" s="8">
         <f t="shared" si="5"/>
-        <v>43857</v>
+        <v>43856</v>
       </c>
       <c r="F176" s="7">
         <f t="shared" si="6"/>
@@ -5028,7 +5041,7 @@
     <row r="177" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E177" s="8">
         <f t="shared" si="5"/>
-        <v>43858</v>
+        <v>43857</v>
       </c>
       <c r="F177" s="7">
         <f t="shared" si="6"/>
@@ -5052,7 +5065,7 @@
     <row r="178" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E178" s="8">
         <f t="shared" si="5"/>
-        <v>43859</v>
+        <v>43858</v>
       </c>
       <c r="F178" s="7">
         <f t="shared" si="6"/>
@@ -5076,7 +5089,7 @@
     <row r="179" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E179" s="8">
         <f t="shared" si="5"/>
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="F179" s="7">
         <f t="shared" si="6"/>
@@ -5100,7 +5113,7 @@
     <row r="180" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E180" s="8">
         <f t="shared" si="5"/>
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="F180" s="7">
         <f t="shared" si="6"/>
@@ -5124,11 +5137,11 @@
     <row r="181" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E181" s="8">
         <f t="shared" si="5"/>
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="F181" s="7">
         <f t="shared" si="6"/>
-        <v>60.48</v>
+        <v>61.55</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="5"/>
@@ -5148,7 +5161,7 @@
     <row r="182" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E182" s="8">
         <f t="shared" si="5"/>
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="F182" s="7">
         <f t="shared" si="6"/>
@@ -5172,7 +5185,7 @@
     <row r="183" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E183" s="8">
         <f t="shared" si="5"/>
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="F183" s="7">
         <f t="shared" si="6"/>
@@ -5196,7 +5209,7 @@
     <row r="184" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E184" s="8">
         <f t="shared" si="5"/>
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="F184" s="7">
         <f t="shared" si="6"/>
@@ -5220,7 +5233,7 @@
     <row r="185" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E185" s="8">
         <f t="shared" si="5"/>
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="F185" s="7">
         <f t="shared" si="6"/>
@@ -5244,7 +5257,7 @@
     <row r="186" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E186" s="8">
         <f t="shared" si="5"/>
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="F186" s="7">
         <f t="shared" si="6"/>
@@ -5268,7 +5281,7 @@
     <row r="187" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E187" s="8">
         <f t="shared" si="5"/>
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="F187" s="7">
         <f t="shared" si="6"/>
@@ -5292,7 +5305,7 @@
     <row r="188" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E188" s="8">
         <f t="shared" si="5"/>
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="F188" s="7">
         <f t="shared" si="6"/>
@@ -5316,7 +5329,7 @@
     <row r="189" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E189" s="8">
         <f t="shared" si="5"/>
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="F189" s="7">
         <f t="shared" si="6"/>
@@ -5340,7 +5353,7 @@
     <row r="190" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E190" s="8">
         <f t="shared" si="5"/>
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="F190" s="7">
         <f t="shared" si="6"/>
@@ -5364,7 +5377,7 @@
     <row r="191" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E191" s="8">
         <f t="shared" si="5"/>
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="F191" s="7">
         <f t="shared" si="6"/>
@@ -5388,7 +5401,7 @@
     <row r="192" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E192" s="8">
         <f t="shared" si="5"/>
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="F192" s="7">
         <f t="shared" si="6"/>
@@ -5412,7 +5425,7 @@
     <row r="193" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E193" s="8">
         <f t="shared" si="5"/>
-        <v>43874</v>
+        <v>43873</v>
       </c>
       <c r="F193" s="7">
         <f t="shared" si="6"/>
@@ -5436,7 +5449,7 @@
     <row r="194" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E194" s="8">
         <f t="shared" si="5"/>
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="F194" s="7">
         <f t="shared" si="6"/>
@@ -5460,7 +5473,7 @@
     <row r="195" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E195" s="8">
         <f t="shared" si="5"/>
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="F195" s="7">
         <f t="shared" si="6"/>
@@ -5484,7 +5497,7 @@
     <row r="196" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E196" s="8">
         <f t="shared" si="5"/>
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="F196" s="7">
         <f t="shared" si="6"/>
@@ -5508,7 +5521,7 @@
     <row r="197" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E197" s="8">
         <f t="shared" si="5"/>
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="F197" s="7">
         <f t="shared" si="6"/>
@@ -5532,7 +5545,7 @@
     <row r="198" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E198" s="8">
         <f t="shared" si="5"/>
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="F198" s="7">
         <f t="shared" si="6"/>
@@ -5556,7 +5569,7 @@
     <row r="199" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E199" s="8">
         <f t="shared" si="5"/>
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="F199" s="7">
         <f t="shared" si="6"/>
@@ -5580,7 +5593,7 @@
     <row r="200" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E200" s="8">
         <f t="shared" si="5"/>
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="F200" s="7">
         <f t="shared" si="6"/>
@@ -5604,7 +5617,7 @@
     <row r="201" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E201" s="8">
         <f t="shared" si="5"/>
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="F201" s="7">
         <f t="shared" si="6"/>
@@ -5628,7 +5641,7 @@
     <row r="202" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E202" s="8">
         <f t="shared" si="5"/>
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="F202" s="7">
         <f t="shared" si="6"/>
@@ -5652,7 +5665,7 @@
     <row r="203" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E203" s="8">
         <f t="shared" si="5"/>
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="F203" s="7">
         <f t="shared" si="6"/>
@@ -5676,7 +5689,7 @@
     <row r="204" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E204" s="8">
         <f t="shared" si="5"/>
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="F204" s="7">
         <f t="shared" si="6"/>
@@ -5700,7 +5713,7 @@
     <row r="205" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E205" s="8">
         <f t="shared" si="5"/>
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="F205" s="7">
         <f t="shared" si="6"/>
@@ -5724,7 +5737,7 @@
     <row r="206" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E206" s="8">
         <f t="shared" si="5"/>
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="F206" s="7">
         <f t="shared" si="6"/>
@@ -5748,7 +5761,7 @@
     <row r="207" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E207" s="8">
         <f t="shared" si="5"/>
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="F207" s="7">
         <f t="shared" si="6"/>
@@ -5772,7 +5785,7 @@
     <row r="208" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E208" s="8">
         <f t="shared" si="5"/>
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="F208" s="7">
         <f t="shared" si="6"/>
@@ -5796,7 +5809,7 @@
     <row r="209" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E209" s="8">
         <f t="shared" si="5"/>
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="F209" s="7">
         <f t="shared" si="6"/>
@@ -5820,11 +5833,11 @@
     <row r="210" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E210" s="8">
         <f t="shared" si="5"/>
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="F210" s="7">
         <f t="shared" si="6"/>
-        <v>58.48</v>
+        <v>60.48</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="5"/>
@@ -5844,7 +5857,7 @@
     <row r="211" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E211" s="8">
         <f t="shared" si="5"/>
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="F211" s="7">
         <f t="shared" si="6"/>
@@ -5868,7 +5881,7 @@
     <row r="212" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E212" s="8">
         <f t="shared" si="5"/>
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F212" s="7">
         <f t="shared" si="6"/>
@@ -5892,7 +5905,7 @@
     <row r="213" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E213" s="8">
         <f t="shared" si="5"/>
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F213" s="7">
         <f t="shared" si="6"/>
@@ -5916,7 +5929,7 @@
     <row r="214" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E214" s="8">
         <f t="shared" si="5"/>
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F214" s="7">
         <f t="shared" si="6"/>
@@ -5939,11 +5952,11 @@
     </row>
     <row r="215" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E215" s="8">
-        <f t="shared" ref="E215:E278" si="7">IF(E214+1&gt;MAX($B$4:$B$97), NA(), E214+1)</f>
-        <v>43896</v>
+        <f t="shared" si="5"/>
+        <v>43895</v>
       </c>
       <c r="F215" s="7">
-        <f t="shared" ref="F215:F278" si="8">VLOOKUP(E215,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>58.48</v>
       </c>
       <c r="I215" s="3"/>
@@ -5963,11 +5976,11 @@
     </row>
     <row r="216" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E216" s="8">
-        <f t="shared" si="7"/>
-        <v>43897</v>
+        <f t="shared" ref="E216:E279" si="7">IF(E215+1&gt;MAX($B$4:$B$97), NA(), E215+1)</f>
+        <v>43896</v>
       </c>
       <c r="F216" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F216:F279" si="8">VLOOKUP(E216,$B$4:$C$97, 2,TRUE)</f>
         <v>58.48</v>
       </c>
       <c r="I216" s="3"/>
@@ -5988,7 +6001,7 @@
     <row r="217" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E217" s="8">
         <f t="shared" si="7"/>
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="F217" s="7">
         <f t="shared" si="8"/>
@@ -6012,7 +6025,7 @@
     <row r="218" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E218" s="8">
         <f t="shared" si="7"/>
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="F218" s="7">
         <f t="shared" si="8"/>
@@ -6036,7 +6049,7 @@
     <row r="219" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E219" s="8">
         <f t="shared" si="7"/>
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="F219" s="7">
         <f t="shared" si="8"/>
@@ -6060,7 +6073,7 @@
     <row r="220" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E220" s="8">
         <f t="shared" si="7"/>
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="F220" s="7">
         <f t="shared" si="8"/>
@@ -6084,7 +6097,7 @@
     <row r="221" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E221" s="8">
         <f t="shared" si="7"/>
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="F221" s="7">
         <f t="shared" si="8"/>
@@ -6108,7 +6121,7 @@
     <row r="222" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E222" s="8">
         <f t="shared" si="7"/>
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="F222" s="7">
         <f t="shared" si="8"/>
@@ -6132,7 +6145,7 @@
     <row r="223" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E223" s="8">
         <f t="shared" si="7"/>
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="F223" s="7">
         <f t="shared" si="8"/>
@@ -6156,7 +6169,7 @@
     <row r="224" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E224" s="8">
         <f t="shared" si="7"/>
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="F224" s="7">
         <f t="shared" si="8"/>
@@ -6180,7 +6193,7 @@
     <row r="225" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E225" s="8">
         <f t="shared" si="7"/>
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="F225" s="7">
         <f t="shared" si="8"/>
@@ -6204,7 +6217,7 @@
     <row r="226" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E226" s="8">
         <f t="shared" si="7"/>
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="F226" s="7">
         <f t="shared" si="8"/>
@@ -6228,7 +6241,7 @@
     <row r="227" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E227" s="8">
         <f t="shared" si="7"/>
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="F227" s="7">
         <f t="shared" si="8"/>
@@ -6252,7 +6265,7 @@
     <row r="228" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E228" s="8">
         <f t="shared" si="7"/>
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="F228" s="7">
         <f t="shared" si="8"/>
@@ -6276,7 +6289,7 @@
     <row r="229" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E229" s="8">
         <f t="shared" si="7"/>
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="F229" s="7">
         <f t="shared" si="8"/>
@@ -6300,7 +6313,7 @@
     <row r="230" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E230" s="8">
         <f t="shared" si="7"/>
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="F230" s="7">
         <f t="shared" si="8"/>
@@ -6324,7 +6337,7 @@
     <row r="231" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E231" s="8">
         <f t="shared" si="7"/>
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="F231" s="7">
         <f t="shared" si="8"/>
@@ -6348,7 +6361,7 @@
     <row r="232" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E232" s="8">
         <f t="shared" si="7"/>
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="F232" s="7">
         <f t="shared" si="8"/>
@@ -6372,7 +6385,7 @@
     <row r="233" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E233" s="8">
         <f t="shared" si="7"/>
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="F233" s="7">
         <f t="shared" si="8"/>
@@ -6396,7 +6409,7 @@
     <row r="234" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E234" s="8">
         <f t="shared" si="7"/>
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="F234" s="7">
         <f t="shared" si="8"/>
@@ -6420,7 +6433,7 @@
     <row r="235" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E235" s="8">
         <f t="shared" si="7"/>
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="F235" s="7">
         <f t="shared" si="8"/>
@@ -6444,7 +6457,7 @@
     <row r="236" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E236" s="8">
         <f t="shared" si="7"/>
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="F236" s="7">
         <f t="shared" si="8"/>
@@ -6468,7 +6481,7 @@
     <row r="237" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E237" s="8">
         <f t="shared" si="7"/>
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="F237" s="7">
         <f t="shared" si="8"/>
@@ -6492,7 +6505,7 @@
     <row r="238" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E238" s="8">
         <f t="shared" si="7"/>
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="F238" s="7">
         <f t="shared" si="8"/>
@@ -6516,7 +6529,7 @@
     <row r="239" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E239" s="8">
         <f t="shared" si="7"/>
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="F239" s="7">
         <f t="shared" si="8"/>
@@ -6540,7 +6553,7 @@
     <row r="240" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E240" s="8">
         <f t="shared" si="7"/>
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="F240" s="7">
         <f t="shared" si="8"/>
@@ -6564,11 +6577,11 @@
     <row r="241" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E241" s="8">
         <f t="shared" si="7"/>
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="F241" s="7">
         <f t="shared" si="8"/>
-        <v>55.65</v>
+        <v>58.48</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="5"/>
@@ -6588,7 +6601,7 @@
     <row r="242" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E242" s="8">
         <f t="shared" si="7"/>
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="F242" s="7">
         <f t="shared" si="8"/>
@@ -6612,7 +6625,7 @@
     <row r="243" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E243" s="8">
         <f t="shared" si="7"/>
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="F243" s="7">
         <f t="shared" si="8"/>
@@ -6636,7 +6649,7 @@
     <row r="244" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E244" s="8">
         <f t="shared" si="7"/>
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="F244" s="7">
         <f t="shared" si="8"/>
@@ -6660,7 +6673,7 @@
     <row r="245" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E245" s="8">
         <f t="shared" si="7"/>
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="F245" s="7">
         <f t="shared" si="8"/>
@@ -6684,7 +6697,7 @@
     <row r="246" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E246" s="8">
         <f t="shared" si="7"/>
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="F246" s="7">
         <f t="shared" si="8"/>
@@ -6708,7 +6721,7 @@
     <row r="247" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E247" s="8">
         <f t="shared" si="7"/>
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="F247" s="7">
         <f t="shared" si="8"/>
@@ -6732,7 +6745,7 @@
     <row r="248" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E248" s="8">
         <f t="shared" si="7"/>
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="F248" s="7">
         <f t="shared" si="8"/>
@@ -6756,7 +6769,7 @@
     <row r="249" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E249" s="8">
         <f t="shared" si="7"/>
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="F249" s="7">
         <f t="shared" si="8"/>
@@ -6780,7 +6793,7 @@
     <row r="250" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E250" s="8">
         <f t="shared" si="7"/>
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="F250" s="7">
         <f t="shared" si="8"/>
@@ -6804,7 +6817,7 @@
     <row r="251" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E251" s="8">
         <f t="shared" si="7"/>
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="F251" s="7">
         <f t="shared" si="8"/>
@@ -6828,7 +6841,7 @@
     <row r="252" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E252" s="8">
         <f t="shared" si="7"/>
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="F252" s="7">
         <f t="shared" si="8"/>
@@ -6852,7 +6865,7 @@
     <row r="253" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E253" s="8">
         <f t="shared" si="7"/>
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="F253" s="7">
         <f t="shared" si="8"/>
@@ -6876,7 +6889,7 @@
     <row r="254" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E254" s="8">
         <f t="shared" si="7"/>
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="F254" s="7">
         <f t="shared" si="8"/>
@@ -6900,7 +6913,7 @@
     <row r="255" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E255" s="8">
         <f t="shared" si="7"/>
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="F255" s="7">
         <f t="shared" si="8"/>
@@ -6924,7 +6937,7 @@
     <row r="256" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E256" s="8">
         <f t="shared" si="7"/>
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="F256" s="7">
         <f t="shared" si="8"/>
@@ -6948,7 +6961,7 @@
     <row r="257" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E257" s="8">
         <f t="shared" si="7"/>
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="F257" s="7">
         <f t="shared" si="8"/>
@@ -6972,7 +6985,7 @@
     <row r="258" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E258" s="8">
         <f t="shared" si="7"/>
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="F258" s="7">
         <f t="shared" si="8"/>
@@ -6996,7 +7009,7 @@
     <row r="259" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E259" s="8">
         <f t="shared" si="7"/>
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="F259" s="7">
         <f t="shared" si="8"/>
@@ -7020,7 +7033,7 @@
     <row r="260" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E260" s="8">
         <f t="shared" si="7"/>
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="F260" s="7">
         <f t="shared" si="8"/>
@@ -7044,7 +7057,7 @@
     <row r="261" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E261" s="8">
         <f t="shared" si="7"/>
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="F261" s="7">
         <f t="shared" si="8"/>
@@ -7068,7 +7081,7 @@
     <row r="262" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E262" s="8">
         <f t="shared" si="7"/>
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="F262" s="7">
         <f t="shared" si="8"/>
@@ -7092,7 +7105,7 @@
     <row r="263" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E263" s="8">
         <f t="shared" si="7"/>
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="F263" s="7">
         <f t="shared" si="8"/>
@@ -7116,7 +7129,7 @@
     <row r="264" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E264" s="8">
         <f t="shared" si="7"/>
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="F264" s="7">
         <f t="shared" si="8"/>
@@ -7140,7 +7153,7 @@
     <row r="265" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E265" s="8">
         <f t="shared" si="7"/>
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="F265" s="7">
         <f t="shared" si="8"/>
@@ -7164,7 +7177,7 @@
     <row r="266" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E266" s="8">
         <f t="shared" si="7"/>
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="F266" s="7">
         <f t="shared" si="8"/>
@@ -7188,7 +7201,7 @@
     <row r="267" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E267" s="8">
         <f t="shared" si="7"/>
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="F267" s="7">
         <f t="shared" si="8"/>
@@ -7212,7 +7225,7 @@
     <row r="268" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E268" s="8">
         <f t="shared" si="7"/>
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="F268" s="7">
         <f t="shared" si="8"/>
@@ -7236,7 +7249,7 @@
     <row r="269" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E269" s="8">
         <f t="shared" si="7"/>
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="F269" s="7">
         <f t="shared" si="8"/>
@@ -7260,7 +7273,7 @@
     <row r="270" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E270" s="8">
         <f t="shared" si="7"/>
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="F270" s="7">
         <f t="shared" si="8"/>
@@ -7284,11 +7297,11 @@
     <row r="271" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E271" s="8">
         <f t="shared" si="7"/>
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="F271" s="7">
         <f t="shared" si="8"/>
-        <v>54.851999999999997</v>
+        <v>55.65</v>
       </c>
       <c r="I271" s="3"/>
       <c r="J271" s="5"/>
@@ -7308,7 +7321,7 @@
     <row r="272" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E272" s="8">
         <f t="shared" si="7"/>
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="F272" s="7">
         <f t="shared" si="8"/>
@@ -7332,7 +7345,7 @@
     <row r="273" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E273" s="8">
         <f t="shared" si="7"/>
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="F273" s="7">
         <f t="shared" si="8"/>
@@ -7356,7 +7369,7 @@
     <row r="274" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E274" s="8">
         <f t="shared" si="7"/>
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="F274" s="7">
         <f t="shared" si="8"/>
@@ -7380,7 +7393,7 @@
     <row r="275" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E275" s="8">
         <f t="shared" si="7"/>
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="F275" s="7">
         <f t="shared" si="8"/>
@@ -7404,7 +7417,7 @@
     <row r="276" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E276" s="8">
         <f t="shared" si="7"/>
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="F276" s="7">
         <f t="shared" si="8"/>
@@ -7428,7 +7441,7 @@
     <row r="277" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E277" s="8">
         <f t="shared" si="7"/>
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="F277" s="7">
         <f t="shared" si="8"/>
@@ -7452,7 +7465,7 @@
     <row r="278" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E278" s="8">
         <f t="shared" si="7"/>
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="F278" s="7">
         <f t="shared" si="8"/>
@@ -7475,11 +7488,11 @@
     </row>
     <row r="279" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E279" s="8">
-        <f t="shared" ref="E279:E342" si="9">IF(E278+1&gt;MAX($B$4:$B$97), NA(), E278+1)</f>
-        <v>43960</v>
+        <f t="shared" si="7"/>
+        <v>43959</v>
       </c>
       <c r="F279" s="7">
-        <f t="shared" ref="F279:F342" si="10">VLOOKUP(E279,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>54.851999999999997</v>
       </c>
       <c r="I279" s="3"/>
@@ -7499,11 +7512,11 @@
     </row>
     <row r="280" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E280" s="8">
-        <f t="shared" si="9"/>
-        <v>43961</v>
+        <f t="shared" ref="E280:E343" si="9">IF(E279+1&gt;MAX($B$4:$B$97), NA(), E279+1)</f>
+        <v>43960</v>
       </c>
       <c r="F280" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F280:F343" si="10">VLOOKUP(E280,$B$4:$C$97, 2,TRUE)</f>
         <v>54.851999999999997</v>
       </c>
       <c r="I280" s="3"/>
@@ -7524,7 +7537,7 @@
     <row r="281" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E281" s="8">
         <f t="shared" si="9"/>
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="F281" s="7">
         <f t="shared" si="10"/>
@@ -7548,7 +7561,7 @@
     <row r="282" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E282" s="8">
         <f t="shared" si="9"/>
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="F282" s="7">
         <f t="shared" si="10"/>
@@ -7572,7 +7585,7 @@
     <row r="283" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E283" s="8">
         <f t="shared" si="9"/>
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="F283" s="7">
         <f t="shared" si="10"/>
@@ -7596,7 +7609,7 @@
     <row r="284" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E284" s="8">
         <f t="shared" si="9"/>
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="F284" s="7">
         <f t="shared" si="10"/>
@@ -7620,7 +7633,7 @@
     <row r="285" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E285" s="8">
         <f t="shared" si="9"/>
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="F285" s="7">
         <f t="shared" si="10"/>
@@ -7644,7 +7657,7 @@
     <row r="286" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E286" s="8">
         <f t="shared" si="9"/>
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="F286" s="7">
         <f t="shared" si="10"/>
@@ -7668,7 +7681,7 @@
     <row r="287" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E287" s="8">
         <f t="shared" si="9"/>
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="F287" s="7">
         <f t="shared" si="10"/>
@@ -7692,7 +7705,7 @@
     <row r="288" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E288" s="8">
         <f t="shared" si="9"/>
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="F288" s="7">
         <f t="shared" si="10"/>
@@ -7716,7 +7729,7 @@
     <row r="289" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E289" s="8">
         <f t="shared" si="9"/>
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="F289" s="7">
         <f t="shared" si="10"/>
@@ -7740,7 +7753,7 @@
     <row r="290" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E290" s="8">
         <f t="shared" si="9"/>
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="F290" s="7">
         <f t="shared" si="10"/>
@@ -7764,7 +7777,7 @@
     <row r="291" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E291" s="8">
         <f t="shared" si="9"/>
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="F291" s="7">
         <f t="shared" si="10"/>
@@ -7784,7 +7797,7 @@
     <row r="292" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E292" s="8">
         <f t="shared" si="9"/>
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="F292" s="7">
         <f t="shared" si="10"/>
@@ -7804,7 +7817,7 @@
     <row r="293" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E293" s="8">
         <f t="shared" si="9"/>
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="F293" s="7">
         <f t="shared" si="10"/>
@@ -7824,7 +7837,7 @@
     <row r="294" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E294" s="8">
         <f t="shared" si="9"/>
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="F294" s="7">
         <f t="shared" si="10"/>
@@ -7844,7 +7857,7 @@
     <row r="295" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E295" s="8">
         <f t="shared" si="9"/>
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="F295" s="7">
         <f t="shared" si="10"/>
@@ -7864,7 +7877,7 @@
     <row r="296" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E296" s="8">
         <f t="shared" si="9"/>
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="F296" s="7">
         <f t="shared" si="10"/>
@@ -7884,7 +7897,7 @@
     <row r="297" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E297" s="8">
         <f t="shared" si="9"/>
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="F297" s="7">
         <f t="shared" si="10"/>
@@ -7904,7 +7917,7 @@
     <row r="298" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E298" s="8">
         <f t="shared" si="9"/>
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="F298" s="7">
         <f t="shared" si="10"/>
@@ -7924,7 +7937,7 @@
     <row r="299" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E299" s="8">
         <f t="shared" si="9"/>
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="F299" s="7">
         <f t="shared" si="10"/>
@@ -7944,7 +7957,7 @@
     <row r="300" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E300" s="8">
         <f t="shared" si="9"/>
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="F300" s="7">
         <f t="shared" si="10"/>
@@ -7964,7 +7977,7 @@
     <row r="301" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E301" s="8">
         <f t="shared" si="9"/>
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="F301" s="7">
         <f t="shared" si="10"/>
@@ -7984,11 +7997,11 @@
     <row r="302" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E302" s="8">
         <f t="shared" si="9"/>
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="F302" s="7">
         <f t="shared" si="10"/>
-        <v>53.65</v>
+        <v>54.851999999999997</v>
       </c>
       <c r="N302" s="8">
         <v>43996</v>
@@ -8004,7 +8017,7 @@
     <row r="303" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E303" s="8">
         <f t="shared" si="9"/>
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="F303" s="7">
         <f t="shared" si="10"/>
@@ -8024,7 +8037,7 @@
     <row r="304" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E304" s="8">
         <f t="shared" si="9"/>
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="F304" s="7">
         <f t="shared" si="10"/>
@@ -8044,7 +8057,7 @@
     <row r="305" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E305" s="8">
         <f t="shared" si="9"/>
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="F305" s="7">
         <f t="shared" si="10"/>
@@ -8064,7 +8077,7 @@
     <row r="306" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E306" s="8">
         <f t="shared" si="9"/>
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="F306" s="7">
         <f t="shared" si="10"/>
@@ -8084,7 +8097,7 @@
     <row r="307" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E307" s="8">
         <f t="shared" si="9"/>
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="F307" s="7">
         <f t="shared" si="10"/>
@@ -8104,7 +8117,7 @@
     <row r="308" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E308" s="8">
         <f t="shared" si="9"/>
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="F308" s="7">
         <f t="shared" si="10"/>
@@ -8124,7 +8137,7 @@
     <row r="309" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E309" s="8">
         <f t="shared" si="9"/>
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="F309" s="7">
         <f t="shared" si="10"/>
@@ -8144,7 +8157,7 @@
     <row r="310" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E310" s="8">
         <f t="shared" si="9"/>
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="F310" s="7">
         <f t="shared" si="10"/>
@@ -8164,7 +8177,7 @@
     <row r="311" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E311" s="8">
         <f t="shared" si="9"/>
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="F311" s="7">
         <f t="shared" si="10"/>
@@ -8184,7 +8197,7 @@
     <row r="312" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E312" s="8">
         <f t="shared" si="9"/>
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="F312" s="7">
         <f t="shared" si="10"/>
@@ -8204,7 +8217,7 @@
     <row r="313" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E313" s="8">
         <f t="shared" si="9"/>
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="F313" s="7">
         <f t="shared" si="10"/>
@@ -8224,7 +8237,7 @@
     <row r="314" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E314" s="8">
         <f t="shared" si="9"/>
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="F314" s="7">
         <f t="shared" si="10"/>
@@ -8244,7 +8257,7 @@
     <row r="315" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E315" s="8">
         <f t="shared" si="9"/>
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="F315" s="7">
         <f t="shared" si="10"/>
@@ -8264,7 +8277,7 @@
     <row r="316" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E316" s="8">
         <f t="shared" si="9"/>
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="F316" s="7">
         <f t="shared" si="10"/>
@@ -8284,7 +8297,7 @@
     <row r="317" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E317" s="8">
         <f t="shared" si="9"/>
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="F317" s="7">
         <f t="shared" si="10"/>
@@ -8304,7 +8317,7 @@
     <row r="318" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E318" s="8">
         <f t="shared" si="9"/>
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="F318" s="7">
         <f t="shared" si="10"/>
@@ -8324,7 +8337,7 @@
     <row r="319" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E319" s="8">
         <f t="shared" si="9"/>
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="F319" s="7">
         <f t="shared" si="10"/>
@@ -8344,7 +8357,7 @@
     <row r="320" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E320" s="8">
         <f t="shared" si="9"/>
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="F320" s="7">
         <f t="shared" si="10"/>
@@ -8364,7 +8377,7 @@
     <row r="321" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E321" s="8">
         <f t="shared" si="9"/>
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="F321" s="7">
         <f t="shared" si="10"/>
@@ -8384,7 +8397,7 @@
     <row r="322" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E322" s="8">
         <f t="shared" si="9"/>
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="F322" s="7">
         <f t="shared" si="10"/>
@@ -8404,7 +8417,7 @@
     <row r="323" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E323" s="8">
         <f t="shared" si="9"/>
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="F323" s="7">
         <f t="shared" si="10"/>
@@ -8424,7 +8437,7 @@
     <row r="324" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E324" s="8">
         <f t="shared" si="9"/>
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="F324" s="7">
         <f t="shared" si="10"/>
@@ -8444,7 +8457,7 @@
     <row r="325" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E325" s="8">
         <f t="shared" si="9"/>
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="F325" s="7">
         <f t="shared" si="10"/>
@@ -8464,7 +8477,7 @@
     <row r="326" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E326" s="8">
         <f t="shared" si="9"/>
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="F326" s="7">
         <f t="shared" si="10"/>
@@ -8484,7 +8497,7 @@
     <row r="327" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E327" s="8">
         <f t="shared" si="9"/>
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="F327" s="7">
         <f t="shared" si="10"/>
@@ -8504,7 +8517,7 @@
     <row r="328" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E328" s="8">
         <f t="shared" si="9"/>
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="F328" s="7">
         <f t="shared" si="10"/>
@@ -8524,7 +8537,7 @@
     <row r="329" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E329" s="8">
         <f t="shared" si="9"/>
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="F329" s="7">
         <f t="shared" si="10"/>
@@ -8544,7 +8557,7 @@
     <row r="330" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E330" s="8">
         <f t="shared" si="9"/>
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="F330" s="7">
         <f t="shared" si="10"/>
@@ -8564,7 +8577,7 @@
     <row r="331" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E331" s="8">
         <f t="shared" si="9"/>
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="F331" s="7">
         <f t="shared" si="10"/>
@@ -8584,11 +8597,11 @@
     <row r="332" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E332" s="8">
         <f t="shared" si="9"/>
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="F332" s="7">
         <f t="shared" si="10"/>
-        <v>53.98</v>
+        <v>53.65</v>
       </c>
       <c r="N332" s="8">
         <v>44026</v>
@@ -8604,7 +8617,7 @@
     <row r="333" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E333" s="8">
         <f t="shared" si="9"/>
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="F333" s="7">
         <f t="shared" si="10"/>
@@ -8624,7 +8637,7 @@
     <row r="334" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E334" s="8">
         <f t="shared" si="9"/>
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="F334" s="7">
         <f t="shared" si="10"/>
@@ -8644,7 +8657,7 @@
     <row r="335" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E335" s="8">
         <f t="shared" si="9"/>
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="F335" s="7">
         <f t="shared" si="10"/>
@@ -8664,7 +8677,7 @@
     <row r="336" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E336" s="8">
         <f t="shared" si="9"/>
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="F336" s="7">
         <f t="shared" si="10"/>
@@ -8684,7 +8697,7 @@
     <row r="337" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E337" s="8">
         <f t="shared" si="9"/>
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="F337" s="7">
         <f t="shared" si="10"/>
@@ -8704,7 +8717,7 @@
     <row r="338" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E338" s="8">
         <f t="shared" si="9"/>
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="F338" s="7">
         <f t="shared" si="10"/>
@@ -8724,7 +8737,7 @@
     <row r="339" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E339" s="8">
         <f t="shared" si="9"/>
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="F339" s="7">
         <f t="shared" si="10"/>
@@ -8744,7 +8757,7 @@
     <row r="340" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E340" s="8">
         <f t="shared" si="9"/>
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="F340" s="7">
         <f t="shared" si="10"/>
@@ -8764,7 +8777,7 @@
     <row r="341" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E341" s="8">
         <f t="shared" si="9"/>
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="F341" s="7">
         <f t="shared" si="10"/>
@@ -8784,7 +8797,7 @@
     <row r="342" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E342" s="8">
         <f t="shared" si="9"/>
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="F342" s="7">
         <f t="shared" si="10"/>
@@ -8803,11 +8816,11 @@
     </row>
     <row r="343" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E343" s="8">
-        <f t="shared" ref="E343:E406" si="11">IF(E342+1&gt;MAX($B$4:$B$97), NA(), E342+1)</f>
-        <v>44024</v>
+        <f t="shared" si="9"/>
+        <v>44023</v>
       </c>
       <c r="F343" s="7">
-        <f t="shared" ref="F343:F406" si="12">VLOOKUP(E343,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>53.98</v>
       </c>
       <c r="N343" s="8">
@@ -8823,11 +8836,11 @@
     </row>
     <row r="344" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E344" s="8">
-        <f t="shared" si="11"/>
-        <v>44025</v>
+        <f t="shared" ref="E344:E407" si="11">IF(E343+1&gt;MAX($B$4:$B$97), NA(), E343+1)</f>
+        <v>44024</v>
       </c>
       <c r="F344" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F344:F407" si="12">VLOOKUP(E344,$B$4:$C$97, 2,TRUE)</f>
         <v>53.98</v>
       </c>
       <c r="N344" s="8">
@@ -8844,7 +8857,7 @@
     <row r="345" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E345" s="8">
         <f t="shared" si="11"/>
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="F345" s="7">
         <f t="shared" si="12"/>
@@ -8864,7 +8877,7 @@
     <row r="346" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E346" s="8">
         <f t="shared" si="11"/>
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="F346" s="7">
         <f t="shared" si="12"/>
@@ -8884,7 +8897,7 @@
     <row r="347" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E347" s="8">
         <f t="shared" si="11"/>
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="F347" s="7">
         <f t="shared" si="12"/>
@@ -8904,7 +8917,7 @@
     <row r="348" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E348" s="8">
         <f t="shared" si="11"/>
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="F348" s="7">
         <f t="shared" si="12"/>
@@ -8924,7 +8937,7 @@
     <row r="349" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E349" s="8">
         <f t="shared" si="11"/>
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="F349" s="7">
         <f t="shared" si="12"/>
@@ -8944,7 +8957,7 @@
     <row r="350" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E350" s="8">
         <f t="shared" si="11"/>
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="F350" s="7">
         <f t="shared" si="12"/>
@@ -8964,7 +8977,7 @@
     <row r="351" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E351" s="8">
         <f t="shared" si="11"/>
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="F351" s="7">
         <f t="shared" si="12"/>
@@ -8984,7 +8997,7 @@
     <row r="352" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E352" s="8">
         <f t="shared" si="11"/>
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="F352" s="7">
         <f t="shared" si="12"/>
@@ -9004,7 +9017,7 @@
     <row r="353" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E353" s="8">
         <f t="shared" si="11"/>
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="F353" s="7">
         <f t="shared" si="12"/>
@@ -9024,7 +9037,7 @@
     <row r="354" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E354" s="8">
         <f t="shared" si="11"/>
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="F354" s="7">
         <f t="shared" si="12"/>
@@ -9044,7 +9057,7 @@
     <row r="355" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E355" s="8">
         <f t="shared" si="11"/>
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="F355" s="7">
         <f t="shared" si="12"/>
@@ -9064,7 +9077,7 @@
     <row r="356" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E356" s="8">
         <f t="shared" si="11"/>
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="F356" s="7">
         <f t="shared" si="12"/>
@@ -9084,7 +9097,7 @@
     <row r="357" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E357" s="8">
         <f t="shared" si="11"/>
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="F357" s="7">
         <f t="shared" si="12"/>
@@ -9104,7 +9117,7 @@
     <row r="358" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E358" s="8">
         <f t="shared" si="11"/>
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="F358" s="7">
         <f t="shared" si="12"/>
@@ -9124,7 +9137,7 @@
     <row r="359" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E359" s="8">
         <f t="shared" si="11"/>
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="F359" s="7">
         <f t="shared" si="12"/>
@@ -9144,7 +9157,7 @@
     <row r="360" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E360" s="8">
         <f t="shared" si="11"/>
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="F360" s="7">
         <f t="shared" si="12"/>
@@ -9164,7 +9177,7 @@
     <row r="361" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E361" s="8">
         <f t="shared" si="11"/>
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="F361" s="7">
         <f t="shared" si="12"/>
@@ -9184,7 +9197,7 @@
     <row r="362" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E362" s="8">
         <f t="shared" si="11"/>
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="F362" s="7">
         <f t="shared" si="12"/>
@@ -9204,11 +9217,11 @@
     <row r="363" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E363" s="8">
         <f t="shared" si="11"/>
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="F363" s="7">
         <f t="shared" si="12"/>
-        <v>54.25</v>
+        <v>53.98</v>
       </c>
       <c r="N363" s="8">
         <v>44057</v>
@@ -9224,7 +9237,7 @@
     <row r="364" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E364" s="8">
         <f t="shared" si="11"/>
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="F364" s="7">
         <f t="shared" si="12"/>
@@ -9244,7 +9257,7 @@
     <row r="365" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E365" s="8">
         <f t="shared" si="11"/>
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="F365" s="7">
         <f t="shared" si="12"/>
@@ -9264,7 +9277,7 @@
     <row r="366" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E366" s="8">
         <f t="shared" si="11"/>
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="F366" s="7">
         <f t="shared" si="12"/>
@@ -9284,7 +9297,7 @@
     <row r="367" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E367" s="8">
         <f t="shared" si="11"/>
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="F367" s="7">
         <f t="shared" si="12"/>
@@ -9304,7 +9317,7 @@
     <row r="368" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E368" s="8">
         <f t="shared" si="11"/>
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="F368" s="7">
         <f t="shared" si="12"/>
@@ -9324,7 +9337,7 @@
     <row r="369" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E369" s="8">
         <f t="shared" si="11"/>
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="F369" s="7">
         <f t="shared" si="12"/>
@@ -9344,7 +9357,7 @@
     <row r="370" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E370" s="8">
         <f t="shared" si="11"/>
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="F370" s="7">
         <f t="shared" si="12"/>
@@ -9364,7 +9377,7 @@
     <row r="371" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E371" s="8">
         <f t="shared" si="11"/>
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="F371" s="7">
         <f t="shared" si="12"/>
@@ -9384,7 +9397,7 @@
     <row r="372" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E372" s="8">
         <f t="shared" si="11"/>
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="F372" s="7">
         <f t="shared" si="12"/>
@@ -9404,7 +9417,7 @@
     <row r="373" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E373" s="8">
         <f t="shared" si="11"/>
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="F373" s="7">
         <f t="shared" si="12"/>
@@ -9424,7 +9437,7 @@
     <row r="374" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E374" s="8">
         <f t="shared" si="11"/>
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="F374" s="7">
         <f t="shared" si="12"/>
@@ -9444,7 +9457,7 @@
     <row r="375" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E375" s="8">
         <f t="shared" si="11"/>
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="F375" s="7">
         <f t="shared" si="12"/>
@@ -9464,7 +9477,7 @@
     <row r="376" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E376" s="8">
         <f t="shared" si="11"/>
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="F376" s="7">
         <f t="shared" si="12"/>
@@ -9484,7 +9497,7 @@
     <row r="377" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E377" s="8">
         <f t="shared" si="11"/>
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="F377" s="7">
         <f t="shared" si="12"/>
@@ -9504,7 +9517,7 @@
     <row r="378" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E378" s="8">
         <f t="shared" si="11"/>
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="F378" s="7">
         <f t="shared" si="12"/>
@@ -9524,7 +9537,7 @@
     <row r="379" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E379" s="8">
         <f t="shared" si="11"/>
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="F379" s="7">
         <f t="shared" si="12"/>
@@ -9544,7 +9557,7 @@
     <row r="380" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E380" s="8">
         <f t="shared" si="11"/>
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="F380" s="7">
         <f t="shared" si="12"/>
@@ -9564,7 +9577,7 @@
     <row r="381" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E381" s="8">
         <f t="shared" si="11"/>
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="F381" s="7">
         <f t="shared" si="12"/>
@@ -9584,7 +9597,7 @@
     <row r="382" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E382" s="8">
         <f t="shared" si="11"/>
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="F382" s="7">
         <f t="shared" si="12"/>
@@ -9604,7 +9617,7 @@
     <row r="383" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E383" s="8">
         <f t="shared" si="11"/>
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="F383" s="7">
         <f t="shared" si="12"/>
@@ -9624,7 +9637,7 @@
     <row r="384" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E384" s="8">
         <f t="shared" si="11"/>
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="F384" s="7">
         <f t="shared" si="12"/>
@@ -9644,7 +9657,7 @@
     <row r="385" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E385" s="8">
         <f t="shared" si="11"/>
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="F385" s="7">
         <f t="shared" si="12"/>
@@ -9664,7 +9677,7 @@
     <row r="386" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E386" s="8">
         <f t="shared" si="11"/>
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="F386" s="7">
         <f t="shared" si="12"/>
@@ -9684,7 +9697,7 @@
     <row r="387" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E387" s="8">
         <f t="shared" si="11"/>
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="F387" s="7">
         <f t="shared" si="12"/>
@@ -9704,7 +9717,7 @@
     <row r="388" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E388" s="8">
         <f t="shared" si="11"/>
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="F388" s="7">
         <f t="shared" si="12"/>
@@ -9724,7 +9737,7 @@
     <row r="389" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E389" s="8">
         <f t="shared" si="11"/>
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="F389" s="7">
         <f t="shared" si="12"/>
@@ -9744,7 +9757,7 @@
     <row r="390" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E390" s="8">
         <f t="shared" si="11"/>
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="F390" s="7">
         <f t="shared" si="12"/>
@@ -9764,7 +9777,7 @@
     <row r="391" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E391" s="8">
         <f t="shared" si="11"/>
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="F391" s="7">
         <f t="shared" si="12"/>
@@ -9784,7 +9797,7 @@
     <row r="392" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E392" s="8">
         <f t="shared" si="11"/>
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="F392" s="7">
         <f t="shared" si="12"/>
@@ -9804,7 +9817,7 @@
     <row r="393" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E393" s="8">
         <f t="shared" si="11"/>
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="F393" s="7">
         <f t="shared" si="12"/>
@@ -9824,11 +9837,11 @@
     <row r="394" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E394" s="8">
         <f t="shared" si="11"/>
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="F394" s="7">
         <f t="shared" si="12"/>
-        <v>56.597999999999999</v>
+        <v>54.25</v>
       </c>
       <c r="N394" s="8">
         <v>44088</v>
@@ -9844,7 +9857,7 @@
     <row r="395" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E395" s="8">
         <f t="shared" si="11"/>
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="F395" s="7">
         <f t="shared" si="12"/>
@@ -9864,7 +9877,7 @@
     <row r="396" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E396" s="8">
         <f t="shared" si="11"/>
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="F396" s="7">
         <f t="shared" si="12"/>
@@ -9884,7 +9897,7 @@
     <row r="397" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E397" s="8">
         <f t="shared" si="11"/>
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="F397" s="7">
         <f t="shared" si="12"/>
@@ -9904,7 +9917,7 @@
     <row r="398" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E398" s="8">
         <f t="shared" si="11"/>
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="F398" s="7">
         <f t="shared" si="12"/>
@@ -9924,7 +9937,7 @@
     <row r="399" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E399" s="8">
         <f t="shared" si="11"/>
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="F399" s="7">
         <f t="shared" si="12"/>
@@ -9944,7 +9957,7 @@
     <row r="400" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E400" s="8">
         <f t="shared" si="11"/>
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="F400" s="7">
         <f t="shared" si="12"/>
@@ -9964,7 +9977,7 @@
     <row r="401" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E401" s="8">
         <f t="shared" si="11"/>
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="F401" s="7">
         <f t="shared" si="12"/>
@@ -9984,7 +9997,7 @@
     <row r="402" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E402" s="8">
         <f t="shared" si="11"/>
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="F402" s="7">
         <f t="shared" si="12"/>
@@ -10004,7 +10017,7 @@
     <row r="403" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E403" s="8">
         <f t="shared" si="11"/>
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="F403" s="7">
         <f t="shared" si="12"/>
@@ -10024,7 +10037,7 @@
     <row r="404" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E404" s="8">
         <f t="shared" si="11"/>
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="F404" s="7">
         <f t="shared" si="12"/>
@@ -10044,7 +10057,7 @@
     <row r="405" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E405" s="8">
         <f t="shared" si="11"/>
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="F405" s="7">
         <f t="shared" si="12"/>
@@ -10064,7 +10077,7 @@
     <row r="406" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E406" s="8">
         <f t="shared" si="11"/>
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="F406" s="7">
         <f t="shared" si="12"/>
@@ -10083,11 +10096,11 @@
     </row>
     <row r="407" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E407" s="8">
-        <f t="shared" ref="E407:E440" si="13">IF(E406+1&gt;MAX($B$4:$B$97), NA(), E406+1)</f>
-        <v>44088</v>
+        <f t="shared" si="11"/>
+        <v>44087</v>
       </c>
       <c r="F407" s="7">
-        <f t="shared" ref="F407:F470" si="14">VLOOKUP(E407,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>56.597999999999999</v>
       </c>
       <c r="N407" s="8">
@@ -10103,11 +10116,11 @@
     </row>
     <row r="408" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E408" s="8">
-        <f t="shared" si="13"/>
-        <v>44089</v>
+        <f t="shared" ref="E408:E441" si="13">IF(E407+1&gt;MAX($B$4:$B$97), NA(), E407+1)</f>
+        <v>44088</v>
       </c>
       <c r="F408" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F408:F471" si="14">VLOOKUP(E408,$B$4:$C$97, 2,TRUE)</f>
         <v>56.597999999999999</v>
       </c>
       <c r="N408" s="8">
@@ -10124,7 +10137,7 @@
     <row r="409" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E409" s="8">
         <f t="shared" si="13"/>
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="F409" s="7">
         <f t="shared" si="14"/>
@@ -10144,7 +10157,7 @@
     <row r="410" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E410" s="8">
         <f t="shared" si="13"/>
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="F410" s="7">
         <f t="shared" si="14"/>
@@ -10164,7 +10177,7 @@
     <row r="411" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E411" s="8">
         <f t="shared" si="13"/>
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="F411" s="7">
         <f t="shared" si="14"/>
@@ -10184,7 +10197,7 @@
     <row r="412" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E412" s="8">
         <f t="shared" si="13"/>
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="F412" s="7">
         <f t="shared" si="14"/>
@@ -10204,7 +10217,7 @@
     <row r="413" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E413" s="8">
         <f t="shared" si="13"/>
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="F413" s="7">
         <f t="shared" si="14"/>
@@ -10224,7 +10237,7 @@
     <row r="414" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E414" s="8">
         <f t="shared" si="13"/>
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="F414" s="7">
         <f t="shared" si="14"/>
@@ -10244,7 +10257,7 @@
     <row r="415" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E415" s="8">
         <f t="shared" si="13"/>
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="F415" s="7">
         <f t="shared" si="14"/>
@@ -10264,7 +10277,7 @@
     <row r="416" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E416" s="8">
         <f t="shared" si="13"/>
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="F416" s="7">
         <f t="shared" si="14"/>
@@ -10284,7 +10297,7 @@
     <row r="417" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E417" s="8">
         <f t="shared" si="13"/>
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="F417" s="7">
         <f t="shared" si="14"/>
@@ -10304,7 +10317,7 @@
     <row r="418" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E418" s="8">
         <f t="shared" si="13"/>
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="F418" s="7">
         <f t="shared" si="14"/>
@@ -10324,7 +10337,7 @@
     <row r="419" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E419" s="8">
         <f t="shared" si="13"/>
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="F419" s="7">
         <f t="shared" si="14"/>
@@ -10344,7 +10357,7 @@
     <row r="420" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E420" s="8">
         <f t="shared" si="13"/>
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="F420" s="7">
         <f t="shared" si="14"/>
@@ -10364,7 +10377,7 @@
     <row r="421" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E421" s="8">
         <f t="shared" si="13"/>
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="F421" s="7">
         <f t="shared" si="14"/>
@@ -10384,7 +10397,7 @@
     <row r="422" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E422" s="8">
         <f t="shared" si="13"/>
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="F422" s="7">
         <f t="shared" si="14"/>
@@ -10404,7 +10417,7 @@
     <row r="423" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E423" s="8">
         <f t="shared" si="13"/>
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="F423" s="7">
         <f t="shared" si="14"/>
@@ -10424,11 +10437,11 @@
     <row r="424" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E424" s="8">
         <f t="shared" si="13"/>
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="F424" s="7">
         <f t="shared" si="14"/>
-        <v>59.54</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="N424" s="8">
         <v>44118</v>
@@ -10444,7 +10457,7 @@
     <row r="425" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E425" s="8">
         <f t="shared" si="13"/>
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="F425" s="7">
         <f t="shared" si="14"/>
@@ -10464,7 +10477,7 @@
     <row r="426" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E426" s="8">
         <f t="shared" si="13"/>
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="F426" s="7">
         <f t="shared" si="14"/>
@@ -10484,7 +10497,7 @@
     <row r="427" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E427" s="8">
         <f t="shared" si="13"/>
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="F427" s="7">
         <f t="shared" si="14"/>
@@ -10504,7 +10517,7 @@
     <row r="428" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E428" s="8">
         <f t="shared" si="13"/>
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="F428" s="7">
         <f t="shared" si="14"/>
@@ -10524,7 +10537,7 @@
     <row r="429" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E429" s="8">
         <f t="shared" si="13"/>
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="F429" s="7">
         <f t="shared" si="14"/>
@@ -10544,7 +10557,7 @@
     <row r="430" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E430" s="8">
         <f t="shared" si="13"/>
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="F430" s="7">
         <f t="shared" si="14"/>
@@ -10564,7 +10577,7 @@
     <row r="431" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E431" s="8">
         <f t="shared" si="13"/>
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="F431" s="7">
         <f t="shared" si="14"/>
@@ -10584,7 +10597,7 @@
     <row r="432" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E432" s="8">
         <f t="shared" si="13"/>
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="F432" s="7">
         <f t="shared" si="14"/>
@@ -10604,7 +10617,7 @@
     <row r="433" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E433" s="8">
         <f t="shared" si="13"/>
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="F433" s="7">
         <f t="shared" si="14"/>
@@ -10624,7 +10637,7 @@
     <row r="434" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E434" s="8">
         <f t="shared" si="13"/>
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="F434" s="7">
         <f t="shared" si="14"/>
@@ -10644,7 +10657,7 @@
     <row r="435" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E435" s="8">
         <f t="shared" si="13"/>
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="F435" s="7">
         <f t="shared" si="14"/>
@@ -10664,7 +10677,7 @@
     <row r="436" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E436" s="8">
         <f t="shared" si="13"/>
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="F436" s="7">
         <f t="shared" si="14"/>
@@ -10684,7 +10697,7 @@
     <row r="437" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E437" s="8">
         <f t="shared" si="13"/>
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="F437" s="7">
         <f t="shared" si="14"/>
@@ -10704,7 +10717,7 @@
     <row r="438" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E438" s="8">
         <f t="shared" si="13"/>
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="F438" s="7">
         <f t="shared" si="14"/>
@@ -10724,7 +10737,7 @@
     <row r="439" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E439" s="8">
         <f t="shared" si="13"/>
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="F439" s="7">
         <f t="shared" si="14"/>
@@ -10744,7 +10757,7 @@
     <row r="440" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E440" s="8">
         <f t="shared" si="13"/>
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="F440" s="7">
         <f t="shared" si="14"/>
@@ -10763,8 +10776,8 @@
     </row>
     <row r="441" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E441" s="8">
-        <f t="shared" ref="E441:E504" si="15">IF(E440+1&gt;MAX($B$4:$B$97), NA(), E440+1)</f>
-        <v>44122</v>
+        <f t="shared" si="13"/>
+        <v>44121</v>
       </c>
       <c r="F441" s="7">
         <f t="shared" si="14"/>
@@ -10783,8 +10796,8 @@
     </row>
     <row r="442" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E442" s="8">
-        <f t="shared" si="15"/>
-        <v>44123</v>
+        <f t="shared" ref="E442:E505" si="15">IF(E441+1&gt;MAX($B$4:$B$97), NA(), E441+1)</f>
+        <v>44122</v>
       </c>
       <c r="F442" s="7">
         <f t="shared" si="14"/>
@@ -10804,7 +10817,7 @@
     <row r="443" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E443" s="8">
         <f t="shared" si="15"/>
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="F443" s="7">
         <f t="shared" si="14"/>
@@ -10824,7 +10837,7 @@
     <row r="444" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E444" s="8">
         <f t="shared" si="15"/>
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="F444" s="7">
         <f t="shared" si="14"/>
@@ -10844,7 +10857,7 @@
     <row r="445" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E445" s="8">
         <f t="shared" si="15"/>
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="F445" s="7">
         <f t="shared" si="14"/>
@@ -10864,7 +10877,7 @@
     <row r="446" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E446" s="8">
         <f t="shared" si="15"/>
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="F446" s="7">
         <f t="shared" si="14"/>
@@ -10884,7 +10897,7 @@
     <row r="447" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E447" s="8">
         <f t="shared" si="15"/>
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="F447" s="7">
         <f t="shared" si="14"/>
@@ -10904,7 +10917,7 @@
     <row r="448" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E448" s="8">
         <f t="shared" si="15"/>
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="F448" s="7">
         <f t="shared" si="14"/>
@@ -10924,7 +10937,7 @@
     <row r="449" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E449" s="8">
         <f t="shared" si="15"/>
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="F449" s="7">
         <f t="shared" si="14"/>
@@ -10944,7 +10957,7 @@
     <row r="450" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E450" s="8">
         <f t="shared" si="15"/>
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="F450" s="7">
         <f t="shared" si="14"/>
@@ -10964,7 +10977,7 @@
     <row r="451" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E451" s="8">
         <f t="shared" si="15"/>
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="F451" s="7">
         <f t="shared" si="14"/>
@@ -10984,7 +10997,7 @@
     <row r="452" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E452" s="8">
         <f t="shared" si="15"/>
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="F452" s="7">
         <f t="shared" si="14"/>
@@ -11004,7 +11017,7 @@
     <row r="453" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E453" s="8">
         <f t="shared" si="15"/>
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="F453" s="7">
         <f t="shared" si="14"/>
@@ -11024,7 +11037,7 @@
     <row r="454" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E454" s="8">
         <f t="shared" si="15"/>
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="F454" s="7">
         <f t="shared" si="14"/>
@@ -11044,11 +11057,11 @@
     <row r="455" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E455" s="8">
         <f t="shared" si="15"/>
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="F455" s="7">
         <f t="shared" si="14"/>
-        <v>60.65</v>
+        <v>59.54</v>
       </c>
       <c r="N455" s="8">
         <v>44149</v>
@@ -11064,7 +11077,7 @@
     <row r="456" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E456" s="8">
         <f t="shared" si="15"/>
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="F456" s="7">
         <f t="shared" si="14"/>
@@ -11084,7 +11097,7 @@
     <row r="457" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E457" s="8">
         <f t="shared" si="15"/>
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="F457" s="7">
         <f t="shared" si="14"/>
@@ -11104,7 +11117,7 @@
     <row r="458" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E458" s="8">
         <f t="shared" si="15"/>
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="F458" s="7">
         <f t="shared" si="14"/>
@@ -11124,7 +11137,7 @@
     <row r="459" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E459" s="8">
         <f t="shared" si="15"/>
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="F459" s="7">
         <f t="shared" si="14"/>
@@ -11144,7 +11157,7 @@
     <row r="460" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E460" s="8">
         <f t="shared" si="15"/>
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="F460" s="7">
         <f t="shared" si="14"/>
@@ -11164,7 +11177,7 @@
     <row r="461" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E461" s="8">
         <f t="shared" si="15"/>
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="F461" s="7">
         <f t="shared" si="14"/>
@@ -11184,7 +11197,7 @@
     <row r="462" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E462" s="8">
         <f t="shared" si="15"/>
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="F462" s="7">
         <f t="shared" si="14"/>
@@ -11204,7 +11217,7 @@
     <row r="463" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E463" s="8">
         <f t="shared" si="15"/>
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="F463" s="7">
         <f t="shared" si="14"/>
@@ -11224,7 +11237,7 @@
     <row r="464" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E464" s="8">
         <f t="shared" si="15"/>
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="F464" s="7">
         <f t="shared" si="14"/>
@@ -11244,7 +11257,7 @@
     <row r="465" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E465" s="8">
         <f t="shared" si="15"/>
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="F465" s="7">
         <f t="shared" si="14"/>
@@ -11264,7 +11277,7 @@
     <row r="466" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E466" s="8">
         <f t="shared" si="15"/>
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="F466" s="7">
         <f t="shared" si="14"/>
@@ -11284,7 +11297,7 @@
     <row r="467" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E467" s="8">
         <f t="shared" si="15"/>
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="F467" s="7">
         <f t="shared" si="14"/>
@@ -11304,7 +11317,7 @@
     <row r="468" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E468" s="8">
         <f t="shared" si="15"/>
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="F468" s="7">
         <f t="shared" si="14"/>
@@ -11324,7 +11337,7 @@
     <row r="469" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E469" s="8">
         <f t="shared" si="15"/>
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="F469" s="7">
         <f t="shared" si="14"/>
@@ -11344,7 +11357,7 @@
     <row r="470" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E470" s="8">
         <f t="shared" si="15"/>
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="F470" s="7">
         <f t="shared" si="14"/>
@@ -11364,10 +11377,10 @@
     <row r="471" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E471" s="8">
         <f t="shared" si="15"/>
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="F471" s="7">
-        <f t="shared" ref="F471:F534" si="16">VLOOKUP(E471,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="14"/>
         <v>60.65</v>
       </c>
       <c r="N471" s="8">
@@ -11384,10 +11397,10 @@
     <row r="472" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E472" s="8">
         <f t="shared" si="15"/>
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F472" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F472:F535" si="16">VLOOKUP(E472,$B$4:$C$97, 2,TRUE)</f>
         <v>60.65</v>
       </c>
       <c r="N472" s="8">
@@ -11404,7 +11417,7 @@
     <row r="473" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E473" s="8">
         <f t="shared" si="15"/>
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="F473" s="7">
         <f t="shared" si="16"/>
@@ -11424,7 +11437,7 @@
     <row r="474" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E474" s="8">
         <f t="shared" si="15"/>
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="F474" s="7">
         <f t="shared" si="16"/>
@@ -11444,7 +11457,7 @@
     <row r="475" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E475" s="8">
         <f t="shared" si="15"/>
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="F475" s="7">
         <f t="shared" si="16"/>
@@ -11464,7 +11477,7 @@
     <row r="476" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E476" s="8">
         <f t="shared" si="15"/>
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="F476" s="7">
         <f t="shared" si="16"/>
@@ -11484,7 +11497,7 @@
     <row r="477" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E477" s="8">
         <f t="shared" si="15"/>
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="F477" s="7">
         <f t="shared" si="16"/>
@@ -11504,7 +11517,7 @@
     <row r="478" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E478" s="8">
         <f t="shared" si="15"/>
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="F478" s="7">
         <f t="shared" si="16"/>
@@ -11524,7 +11537,7 @@
     <row r="479" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E479" s="8">
         <f t="shared" si="15"/>
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="F479" s="7">
         <f t="shared" si="16"/>
@@ -11544,7 +11557,7 @@
     <row r="480" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E480" s="8">
         <f t="shared" si="15"/>
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="F480" s="7">
         <f t="shared" si="16"/>
@@ -11564,7 +11577,7 @@
     <row r="481" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E481" s="8">
         <f t="shared" si="15"/>
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="F481" s="7">
         <f t="shared" si="16"/>
@@ -11584,7 +11597,7 @@
     <row r="482" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E482" s="8">
         <f t="shared" si="15"/>
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="F482" s="7">
         <f t="shared" si="16"/>
@@ -11604,7 +11617,7 @@
     <row r="483" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E483" s="8">
         <f t="shared" si="15"/>
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="F483" s="7">
         <f t="shared" si="16"/>
@@ -11624,7 +11637,7 @@
     <row r="484" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E484" s="8">
         <f t="shared" si="15"/>
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="F484" s="7">
         <f t="shared" si="16"/>
@@ -11644,11 +11657,11 @@
     <row r="485" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E485" s="8">
         <f t="shared" si="15"/>
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="F485" s="7">
         <f t="shared" si="16"/>
-        <v>62.64</v>
+        <v>60.65</v>
       </c>
       <c r="N485" s="8">
         <v>44179</v>
@@ -11664,7 +11677,7 @@
     <row r="486" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E486" s="8">
         <f t="shared" si="15"/>
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="F486" s="7">
         <f t="shared" si="16"/>
@@ -11684,7 +11697,7 @@
     <row r="487" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E487" s="8">
         <f t="shared" si="15"/>
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="F487" s="7">
         <f t="shared" si="16"/>
@@ -11704,7 +11717,7 @@
     <row r="488" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E488" s="8">
         <f t="shared" si="15"/>
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="F488" s="7">
         <f t="shared" si="16"/>
@@ -11724,7 +11737,7 @@
     <row r="489" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E489" s="8">
         <f t="shared" si="15"/>
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="F489" s="7">
         <f t="shared" si="16"/>
@@ -11744,7 +11757,7 @@
     <row r="490" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E490" s="8">
         <f t="shared" si="15"/>
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="F490" s="7">
         <f t="shared" si="16"/>
@@ -11764,7 +11777,7 @@
     <row r="491" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E491" s="8">
         <f t="shared" si="15"/>
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="F491" s="7">
         <f t="shared" si="16"/>
@@ -11784,7 +11797,7 @@
     <row r="492" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E492" s="8">
         <f t="shared" si="15"/>
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="F492" s="7">
         <f t="shared" si="16"/>
@@ -11804,7 +11817,7 @@
     <row r="493" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E493" s="8">
         <f t="shared" si="15"/>
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="F493" s="7">
         <f t="shared" si="16"/>
@@ -11824,7 +11837,7 @@
     <row r="494" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E494" s="8">
         <f t="shared" si="15"/>
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="F494" s="7">
         <f t="shared" si="16"/>
@@ -11844,7 +11857,7 @@
     <row r="495" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E495" s="8">
         <f t="shared" si="15"/>
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="F495" s="7">
         <f t="shared" si="16"/>
@@ -11864,7 +11877,7 @@
     <row r="496" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E496" s="8">
         <f t="shared" si="15"/>
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="F496" s="7">
         <f t="shared" si="16"/>
@@ -11884,7 +11897,7 @@
     <row r="497" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E497" s="8">
         <f t="shared" si="15"/>
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="F497" s="7">
         <f t="shared" si="16"/>
@@ -11904,7 +11917,7 @@
     <row r="498" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E498" s="8">
         <f t="shared" si="15"/>
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="F498" s="7">
         <f t="shared" si="16"/>
@@ -11924,7 +11937,7 @@
     <row r="499" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E499" s="8">
         <f t="shared" si="15"/>
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="F499" s="7">
         <f t="shared" si="16"/>
@@ -11944,7 +11957,7 @@
     <row r="500" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E500" s="8">
         <f t="shared" si="15"/>
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="F500" s="7">
         <f t="shared" si="16"/>
@@ -11964,7 +11977,7 @@
     <row r="501" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E501" s="8">
         <f t="shared" si="15"/>
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="F501" s="7">
         <f t="shared" si="16"/>
@@ -11984,7 +11997,7 @@
     <row r="502" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E502" s="8">
         <f t="shared" si="15"/>
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="F502" s="7">
         <f t="shared" si="16"/>
@@ -12004,7 +12017,7 @@
     <row r="503" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E503" s="8">
         <f t="shared" si="15"/>
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="F503" s="7">
         <f t="shared" si="16"/>
@@ -12024,7 +12037,7 @@
     <row r="504" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E504" s="8">
         <f t="shared" si="15"/>
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="F504" s="7">
         <f t="shared" si="16"/>
@@ -12043,8 +12056,8 @@
     </row>
     <row r="505" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E505" s="8">
-        <f t="shared" ref="E505:E568" si="17">IF(E504+1&gt;MAX($B$4:$B$97), NA(), E504+1)</f>
-        <v>44186</v>
+        <f t="shared" si="15"/>
+        <v>44185</v>
       </c>
       <c r="F505" s="7">
         <f t="shared" si="16"/>
@@ -12063,8 +12076,8 @@
     </row>
     <row r="506" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E506" s="8">
-        <f t="shared" si="17"/>
-        <v>44187</v>
+        <f t="shared" ref="E506:E569" si="17">IF(E505+1&gt;MAX($B$4:$B$97), NA(), E505+1)</f>
+        <v>44186</v>
       </c>
       <c r="F506" s="7">
         <f t="shared" si="16"/>
@@ -12084,7 +12097,7 @@
     <row r="507" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E507" s="8">
         <f t="shared" si="17"/>
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="F507" s="7">
         <f t="shared" si="16"/>
@@ -12104,7 +12117,7 @@
     <row r="508" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E508" s="8">
         <f t="shared" si="17"/>
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="F508" s="7">
         <f t="shared" si="16"/>
@@ -12124,7 +12137,7 @@
     <row r="509" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E509" s="8">
         <f t="shared" si="17"/>
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="F509" s="7">
         <f t="shared" si="16"/>
@@ -12144,7 +12157,7 @@
     <row r="510" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E510" s="8">
         <f t="shared" si="17"/>
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="F510" s="7">
         <f t="shared" si="16"/>
@@ -12164,7 +12177,7 @@
     <row r="511" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E511" s="8">
         <f t="shared" si="17"/>
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="F511" s="7">
         <f t="shared" si="16"/>
@@ -12184,7 +12197,7 @@
     <row r="512" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E512" s="8">
         <f t="shared" si="17"/>
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="F512" s="7">
         <f t="shared" si="16"/>
@@ -12204,7 +12217,7 @@
     <row r="513" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E513" s="8">
         <f t="shared" si="17"/>
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="F513" s="7">
         <f t="shared" si="16"/>
@@ -12224,7 +12237,7 @@
     <row r="514" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E514" s="8">
         <f t="shared" si="17"/>
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="F514" s="7">
         <f t="shared" si="16"/>
@@ -12244,7 +12257,7 @@
     <row r="515" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E515" s="8">
         <f t="shared" si="17"/>
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="F515" s="7">
         <f t="shared" si="16"/>
@@ -12264,11 +12277,11 @@
     <row r="516" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E516" s="8">
         <f t="shared" si="17"/>
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="F516" s="7">
         <f t="shared" si="16"/>
-        <v>63.58</v>
+        <v>62.64</v>
       </c>
       <c r="N516" s="8">
         <v>44210</v>
@@ -12284,7 +12297,7 @@
     <row r="517" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E517" s="8">
         <f t="shared" si="17"/>
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="F517" s="7">
         <f t="shared" si="16"/>
@@ -12304,7 +12317,7 @@
     <row r="518" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E518" s="8">
         <f t="shared" si="17"/>
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="F518" s="7">
         <f t="shared" si="16"/>
@@ -12324,7 +12337,7 @@
     <row r="519" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E519" s="8">
         <f t="shared" si="17"/>
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="F519" s="7">
         <f t="shared" si="16"/>
@@ -12344,7 +12357,7 @@
     <row r="520" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E520" s="8">
         <f t="shared" si="17"/>
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="F520" s="7">
         <f t="shared" si="16"/>
@@ -12364,7 +12377,7 @@
     <row r="521" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E521" s="8">
         <f t="shared" si="17"/>
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="F521" s="7">
         <f t="shared" si="16"/>
@@ -12384,7 +12397,7 @@
     <row r="522" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E522" s="8">
         <f t="shared" si="17"/>
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="F522" s="7">
         <f t="shared" si="16"/>
@@ -12404,7 +12417,7 @@
     <row r="523" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E523" s="8">
         <f t="shared" si="17"/>
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="F523" s="7">
         <f t="shared" si="16"/>
@@ -12424,7 +12437,7 @@
     <row r="524" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E524" s="8">
         <f t="shared" si="17"/>
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="F524" s="7">
         <f t="shared" si="16"/>
@@ -12444,7 +12457,7 @@
     <row r="525" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E525" s="8">
         <f t="shared" si="17"/>
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="F525" s="7">
         <f t="shared" si="16"/>
@@ -12464,7 +12477,7 @@
     <row r="526" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E526" s="8">
         <f t="shared" si="17"/>
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="F526" s="7">
         <f t="shared" si="16"/>
@@ -12484,7 +12497,7 @@
     <row r="527" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E527" s="8">
         <f t="shared" si="17"/>
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="F527" s="7">
         <f t="shared" si="16"/>
@@ -12504,7 +12517,7 @@
     <row r="528" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E528" s="8">
         <f t="shared" si="17"/>
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="F528" s="7">
         <f t="shared" si="16"/>
@@ -12524,7 +12537,7 @@
     <row r="529" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E529" s="8">
         <f t="shared" si="17"/>
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="F529" s="7">
         <f t="shared" si="16"/>
@@ -12544,7 +12557,7 @@
     <row r="530" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E530" s="8">
         <f t="shared" si="17"/>
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="F530" s="7">
         <f t="shared" si="16"/>
@@ -12564,7 +12577,7 @@
     <row r="531" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E531" s="8">
         <f t="shared" si="17"/>
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="F531" s="7">
         <f t="shared" si="16"/>
@@ -12584,7 +12597,7 @@
     <row r="532" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E532" s="8">
         <f t="shared" si="17"/>
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="F532" s="7">
         <f t="shared" si="16"/>
@@ -12604,7 +12617,7 @@
     <row r="533" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E533" s="8">
         <f t="shared" si="17"/>
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="F533" s="7">
         <f t="shared" si="16"/>
@@ -12624,7 +12637,7 @@
     <row r="534" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E534" s="8">
         <f t="shared" si="17"/>
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="F534" s="7">
         <f t="shared" si="16"/>
@@ -12644,10 +12657,10 @@
     <row r="535" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E535" s="8">
         <f t="shared" si="17"/>
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="F535" s="7">
-        <f t="shared" ref="F535:F598" si="18">VLOOKUP(E535,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>63.58</v>
       </c>
       <c r="N535" s="8">
@@ -12664,10 +12677,10 @@
     <row r="536" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E536" s="8">
         <f t="shared" si="17"/>
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="F536" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F536:F599" si="18">VLOOKUP(E536,$B$4:$C$97, 2,TRUE)</f>
         <v>63.58</v>
       </c>
       <c r="N536" s="8">
@@ -12684,7 +12697,7 @@
     <row r="537" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E537" s="8">
         <f t="shared" si="17"/>
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="F537" s="7">
         <f t="shared" si="18"/>
@@ -12704,7 +12717,7 @@
     <row r="538" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E538" s="8">
         <f t="shared" si="17"/>
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="F538" s="7">
         <f t="shared" si="18"/>
@@ -12724,7 +12737,7 @@
     <row r="539" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E539" s="8">
         <f t="shared" si="17"/>
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="F539" s="7">
         <f t="shared" si="18"/>
@@ -12744,7 +12757,7 @@
     <row r="540" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E540" s="8">
         <f t="shared" si="17"/>
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="F540" s="7">
         <f t="shared" si="18"/>
@@ -12764,7 +12777,7 @@
     <row r="541" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E541" s="8">
         <f t="shared" si="17"/>
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="F541" s="7">
         <f t="shared" si="18"/>
@@ -12784,7 +12797,7 @@
     <row r="542" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E542" s="8">
         <f t="shared" si="17"/>
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="F542" s="7">
         <f t="shared" si="18"/>
@@ -12804,7 +12817,7 @@
     <row r="543" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E543" s="8">
         <f t="shared" si="17"/>
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="F543" s="7">
         <f t="shared" si="18"/>
@@ -12824,7 +12837,7 @@
     <row r="544" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E544" s="8">
         <f t="shared" si="17"/>
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="F544" s="7">
         <f t="shared" si="18"/>
@@ -12844,7 +12857,7 @@
     <row r="545" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E545" s="8">
         <f t="shared" si="17"/>
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="F545" s="7">
         <f t="shared" si="18"/>
@@ -12864,7 +12877,7 @@
     <row r="546" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E546" s="8">
         <f t="shared" si="17"/>
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="F546" s="7">
         <f t="shared" si="18"/>
@@ -12884,11 +12897,11 @@
     <row r="547" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E547" s="8">
         <f t="shared" si="17"/>
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="F547" s="7">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>63.58</v>
       </c>
       <c r="N547" s="8">
         <v>44241</v>
@@ -12904,7 +12917,7 @@
     <row r="548" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E548" s="8">
         <f t="shared" si="17"/>
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="F548" s="7">
         <f t="shared" si="18"/>
@@ -12924,7 +12937,7 @@
     <row r="549" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E549" s="8">
         <f t="shared" si="17"/>
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="F549" s="7">
         <f t="shared" si="18"/>
@@ -12944,7 +12957,7 @@
     <row r="550" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E550" s="8">
         <f t="shared" si="17"/>
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="F550" s="7">
         <f t="shared" si="18"/>
@@ -12964,7 +12977,7 @@
     <row r="551" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E551" s="8">
         <f t="shared" si="17"/>
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="F551" s="7">
         <f t="shared" si="18"/>
@@ -12984,7 +12997,7 @@
     <row r="552" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E552" s="8">
         <f t="shared" si="17"/>
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="F552" s="7">
         <f t="shared" si="18"/>
@@ -13004,7 +13017,7 @@
     <row r="553" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E553" s="8">
         <f t="shared" si="17"/>
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="F553" s="7">
         <f t="shared" si="18"/>
@@ -13024,7 +13037,7 @@
     <row r="554" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E554" s="8">
         <f t="shared" si="17"/>
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="F554" s="7">
         <f t="shared" si="18"/>
@@ -13044,7 +13057,7 @@
     <row r="555" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E555" s="8">
         <f t="shared" si="17"/>
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="F555" s="7">
         <f t="shared" si="18"/>
@@ -13064,7 +13077,7 @@
     <row r="556" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E556" s="8">
         <f t="shared" si="17"/>
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="F556" s="7">
         <f t="shared" si="18"/>
@@ -13084,7 +13097,7 @@
     <row r="557" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E557" s="8">
         <f t="shared" si="17"/>
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="F557" s="7">
         <f t="shared" si="18"/>
@@ -13104,7 +13117,7 @@
     <row r="558" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E558" s="8">
         <f t="shared" si="17"/>
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="F558" s="7">
         <f t="shared" si="18"/>
@@ -13124,7 +13137,7 @@
     <row r="559" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E559" s="8">
         <f t="shared" si="17"/>
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="F559" s="7">
         <f t="shared" si="18"/>
@@ -13144,7 +13157,7 @@
     <row r="560" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E560" s="8">
         <f t="shared" si="17"/>
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="F560" s="7">
         <f t="shared" si="18"/>
@@ -13164,7 +13177,7 @@
     <row r="561" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E561" s="8">
         <f t="shared" si="17"/>
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="F561" s="7">
         <f t="shared" si="18"/>
@@ -13184,7 +13197,7 @@
     <row r="562" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E562" s="8">
         <f t="shared" si="17"/>
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="F562" s="7">
         <f t="shared" si="18"/>
@@ -13204,7 +13217,7 @@
     <row r="563" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E563" s="8">
         <f t="shared" si="17"/>
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="F563" s="7">
         <f t="shared" si="18"/>
@@ -13224,7 +13237,7 @@
     <row r="564" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E564" s="8">
         <f t="shared" si="17"/>
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="F564" s="7">
         <f t="shared" si="18"/>
@@ -13244,7 +13257,7 @@
     <row r="565" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E565" s="8">
         <f t="shared" si="17"/>
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="F565" s="7">
         <f t="shared" si="18"/>
@@ -13264,7 +13277,7 @@
     <row r="566" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E566" s="8">
         <f t="shared" si="17"/>
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="F566" s="7">
         <f t="shared" si="18"/>
@@ -13284,7 +13297,7 @@
     <row r="567" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E567" s="8">
         <f t="shared" si="17"/>
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="F567" s="7">
         <f t="shared" si="18"/>
@@ -13304,7 +13317,7 @@
     <row r="568" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E568" s="8">
         <f t="shared" si="17"/>
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="F568" s="7">
         <f t="shared" si="18"/>
@@ -13323,8 +13336,8 @@
     </row>
     <row r="569" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E569" s="8">
-        <f t="shared" ref="E569:E632" si="19">IF(E568+1&gt;MAX($B$4:$B$97), NA(), E568+1)</f>
-        <v>44250</v>
+        <f t="shared" si="17"/>
+        <v>44249</v>
       </c>
       <c r="F569" s="7">
         <f t="shared" si="18"/>
@@ -13343,8 +13356,8 @@
     </row>
     <row r="570" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E570" s="8">
-        <f t="shared" si="19"/>
-        <v>44251</v>
+        <f t="shared" ref="E570:E633" si="19">IF(E569+1&gt;MAX($B$4:$B$97), NA(), E569+1)</f>
+        <v>44250</v>
       </c>
       <c r="F570" s="7">
         <f t="shared" si="18"/>
@@ -13364,7 +13377,7 @@
     <row r="571" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E571" s="8">
         <f t="shared" si="19"/>
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="F571" s="7">
         <f t="shared" si="18"/>
@@ -13384,7 +13397,7 @@
     <row r="572" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E572" s="8">
         <f t="shared" si="19"/>
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="F572" s="7">
         <f t="shared" si="18"/>
@@ -13404,7 +13417,7 @@
     <row r="573" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E573" s="8">
         <f t="shared" si="19"/>
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="F573" s="7">
         <f t="shared" si="18"/>
@@ -13424,7 +13437,7 @@
     <row r="574" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E574" s="8">
         <f t="shared" si="19"/>
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="F574" s="7">
         <f t="shared" si="18"/>
@@ -13444,11 +13457,11 @@
     <row r="575" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E575" s="8">
         <f t="shared" si="19"/>
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="F575" s="7">
         <f t="shared" si="18"/>
-        <v>58.65</v>
+        <v>61</v>
       </c>
       <c r="N575" s="8">
         <v>44269</v>
@@ -13464,7 +13477,7 @@
     <row r="576" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E576" s="8">
         <f t="shared" si="19"/>
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="F576" s="7">
         <f t="shared" si="18"/>
@@ -13484,7 +13497,7 @@
     <row r="577" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E577" s="8">
         <f t="shared" si="19"/>
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="F577" s="7">
         <f t="shared" si="18"/>
@@ -13504,7 +13517,7 @@
     <row r="578" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E578" s="8">
         <f t="shared" si="19"/>
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="F578" s="7">
         <f t="shared" si="18"/>
@@ -13524,7 +13537,7 @@
     <row r="579" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E579" s="8">
         <f t="shared" si="19"/>
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="F579" s="7">
         <f t="shared" si="18"/>
@@ -13544,7 +13557,7 @@
     <row r="580" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E580" s="8">
         <f t="shared" si="19"/>
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="F580" s="7">
         <f t="shared" si="18"/>
@@ -13564,7 +13577,7 @@
     <row r="581" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E581" s="8">
         <f t="shared" si="19"/>
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="F581" s="7">
         <f t="shared" si="18"/>
@@ -13584,7 +13597,7 @@
     <row r="582" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E582" s="8">
         <f t="shared" si="19"/>
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="F582" s="7">
         <f t="shared" si="18"/>
@@ -13604,7 +13617,7 @@
     <row r="583" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E583" s="8">
         <f t="shared" si="19"/>
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="F583" s="7">
         <f t="shared" si="18"/>
@@ -13624,7 +13637,7 @@
     <row r="584" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E584" s="8">
         <f t="shared" si="19"/>
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="F584" s="7">
         <f t="shared" si="18"/>
@@ -13644,7 +13657,7 @@
     <row r="585" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E585" s="8">
         <f t="shared" si="19"/>
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="F585" s="7">
         <f t="shared" si="18"/>
@@ -13664,7 +13677,7 @@
     <row r="586" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E586" s="8">
         <f t="shared" si="19"/>
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="F586" s="7">
         <f t="shared" si="18"/>
@@ -13684,7 +13697,7 @@
     <row r="587" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E587" s="8">
         <f t="shared" si="19"/>
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="F587" s="7">
         <f t="shared" si="18"/>
@@ -13704,7 +13717,7 @@
     <row r="588" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E588" s="8">
         <f t="shared" si="19"/>
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="F588" s="7">
         <f t="shared" si="18"/>
@@ -13724,7 +13737,7 @@
     <row r="589" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E589" s="8">
         <f t="shared" si="19"/>
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="F589" s="7">
         <f t="shared" si="18"/>
@@ -13744,7 +13757,7 @@
     <row r="590" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E590" s="8">
         <f t="shared" si="19"/>
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="F590" s="7">
         <f t="shared" si="18"/>
@@ -13764,7 +13777,7 @@
     <row r="591" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E591" s="8">
         <f t="shared" si="19"/>
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="F591" s="7">
         <f t="shared" si="18"/>
@@ -13784,7 +13797,7 @@
     <row r="592" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E592" s="8">
         <f t="shared" si="19"/>
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="F592" s="7">
         <f t="shared" si="18"/>
@@ -13804,7 +13817,7 @@
     <row r="593" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E593" s="8">
         <f t="shared" si="19"/>
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="F593" s="7">
         <f t="shared" si="18"/>
@@ -13824,7 +13837,7 @@
     <row r="594" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E594" s="8">
         <f t="shared" si="19"/>
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="F594" s="7">
         <f t="shared" si="18"/>
@@ -13844,7 +13857,7 @@
     <row r="595" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E595" s="8">
         <f t="shared" si="19"/>
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="F595" s="7">
         <f t="shared" si="18"/>
@@ -13864,7 +13877,7 @@
     <row r="596" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E596" s="8">
         <f t="shared" si="19"/>
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="F596" s="7">
         <f t="shared" si="18"/>
@@ -13884,7 +13897,7 @@
     <row r="597" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E597" s="8">
         <f t="shared" si="19"/>
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="F597" s="7">
         <f t="shared" si="18"/>
@@ -13904,7 +13917,7 @@
     <row r="598" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E598" s="8">
         <f t="shared" si="19"/>
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="F598" s="7">
         <f t="shared" si="18"/>
@@ -13924,10 +13937,10 @@
     <row r="599" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E599" s="8">
         <f t="shared" si="19"/>
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="F599" s="7">
-        <f t="shared" ref="F599:F662" si="20">VLOOKUP(E599,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>58.65</v>
       </c>
       <c r="N599" s="8" t="e">
@@ -13944,10 +13957,10 @@
     <row r="600" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E600" s="8">
         <f t="shared" si="19"/>
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="F600" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F600:F663" si="20">VLOOKUP(E600,$B$4:$C$97, 2,TRUE)</f>
         <v>58.65</v>
       </c>
       <c r="N600" s="8" t="e">
@@ -13964,7 +13977,7 @@
     <row r="601" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E601" s="8">
         <f t="shared" si="19"/>
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="F601" s="7">
         <f t="shared" si="20"/>
@@ -13984,7 +13997,7 @@
     <row r="602" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E602" s="8">
         <f t="shared" si="19"/>
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="F602" s="7">
         <f t="shared" si="20"/>
@@ -14004,7 +14017,7 @@
     <row r="603" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E603" s="8">
         <f t="shared" si="19"/>
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="F603" s="7">
         <f t="shared" si="20"/>
@@ -14024,7 +14037,7 @@
     <row r="604" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E604" s="8">
         <f t="shared" si="19"/>
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="F604" s="7">
         <f t="shared" si="20"/>
@@ -14044,7 +14057,7 @@
     <row r="605" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E605" s="8">
         <f t="shared" si="19"/>
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="F605" s="7">
         <f t="shared" si="20"/>
@@ -14064,11 +14077,11 @@
     <row r="606" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E606" s="8">
         <f t="shared" si="19"/>
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="F606" s="7">
         <f t="shared" si="20"/>
-        <v>56.87</v>
+        <v>58.65</v>
       </c>
       <c r="N606" s="8" t="e">
         <v>#N/A</v>
@@ -14082,13 +14095,13 @@
       </c>
     </row>
     <row r="607" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E607" s="8" t="e">
+      <c r="E607" s="8">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F607" s="7" t="e">
+        <v>44287</v>
+      </c>
+      <c r="F607" s="7">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>56.87</v>
       </c>
       <c r="N607" s="8" t="e">
         <v>#N/A</v>
@@ -14603,7 +14616,7 @@
     </row>
     <row r="633" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E633" s="8" t="e">
-        <f t="shared" ref="E633:E696" si="21">IF(E632+1&gt;MAX($B$4:$B$97), NA(), E632+1)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="F633" s="7" t="e">
@@ -14623,7 +14636,7 @@
     </row>
     <row r="634" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E634" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="E634:E697" si="21">IF(E633+1&gt;MAX($B$4:$B$97), NA(), E633+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F634" s="7" t="e">
@@ -15207,7 +15220,7 @@
         <v>#N/A</v>
       </c>
       <c r="F663" s="7" t="e">
-        <f t="shared" ref="F663:F726" si="22">VLOOKUP(E663,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="N663" s="8" t="e">
@@ -15227,7 +15240,7 @@
         <v>#N/A</v>
       </c>
       <c r="F664" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F664:F727" si="22">VLOOKUP(E664,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N664" s="8" t="e">
@@ -15883,7 +15896,7 @@
     </row>
     <row r="697" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E697" s="8" t="e">
-        <f t="shared" ref="E697:E760" si="23">IF(E696+1&gt;MAX($B$4:$B$97), NA(), E696+1)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="F697" s="7" t="e">
@@ -15903,7 +15916,7 @@
     </row>
     <row r="698" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E698" s="8" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="E698:E761" si="23">IF(E697+1&gt;MAX($B$4:$B$97), NA(), E697+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F698" s="7" t="e">
@@ -16487,7 +16500,7 @@
         <v>#N/A</v>
       </c>
       <c r="F727" s="7" t="e">
-        <f t="shared" ref="F727:F790" si="24">VLOOKUP(E727,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="N727" s="8" t="e">
@@ -16507,7 +16520,7 @@
         <v>#N/A</v>
       </c>
       <c r="F728" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="F728:F791" si="24">VLOOKUP(E728,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N728" s="8" t="e">
@@ -17163,7 +17176,7 @@
     </row>
     <row r="761" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E761" s="8" t="e">
-        <f t="shared" ref="E761:E824" si="25">IF(E760+1&gt;MAX($B$4:$B$97), NA(), E760+1)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F761" s="7" t="e">
@@ -17183,7 +17196,7 @@
     </row>
     <row r="762" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E762" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="E762:E825" si="25">IF(E761+1&gt;MAX($B$4:$B$97), NA(), E761+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F762" s="7" t="e">
@@ -17767,7 +17780,7 @@
         <v>#N/A</v>
       </c>
       <c r="F791" s="7" t="e">
-        <f t="shared" ref="F791:F854" si="26">VLOOKUP(E791,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="N791" s="8" t="e">
@@ -17787,7 +17800,7 @@
         <v>#N/A</v>
       </c>
       <c r="F792" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F792:F855" si="26">VLOOKUP(E792,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N792" s="8" t="e">
@@ -18443,7 +18456,7 @@
     </row>
     <row r="825" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E825" s="8" t="e">
-        <f t="shared" ref="E825:E888" si="27">IF(E824+1&gt;MAX($B$4:$B$97), NA(), E824+1)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F825" s="7" t="e">
@@ -18463,7 +18476,7 @@
     </row>
     <row r="826" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E826" s="8" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="E826:E889" si="27">IF(E825+1&gt;MAX($B$4:$B$97), NA(), E825+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F826" s="7" t="e">
@@ -19047,7 +19060,7 @@
         <v>#N/A</v>
       </c>
       <c r="F855" s="7" t="e">
-        <f t="shared" ref="F855:F918" si="28">VLOOKUP(E855,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="N855" s="8" t="e">
@@ -19067,7 +19080,7 @@
         <v>#N/A</v>
       </c>
       <c r="F856" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F856:F919" si="28">VLOOKUP(E856,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N856" s="8" t="e">
@@ -19723,7 +19736,7 @@
     </row>
     <row r="889" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E889" s="8" t="e">
-        <f t="shared" ref="E889:E952" si="29">IF(E888+1&gt;MAX($B$4:$B$97), NA(), E888+1)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="F889" s="7" t="e">
@@ -19743,7 +19756,7 @@
     </row>
     <row r="890" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E890" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="E890:E953" si="29">IF(E889+1&gt;MAX($B$4:$B$97), NA(), E889+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F890" s="7" t="e">
@@ -20327,7 +20340,7 @@
         <v>#N/A</v>
       </c>
       <c r="F919" s="7" t="e">
-        <f t="shared" ref="F919:F982" si="30">VLOOKUP(E919,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="N919" s="8" t="e">
@@ -20347,7 +20360,7 @@
         <v>#N/A</v>
       </c>
       <c r="F920" s="7" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="F920:F983" si="30">VLOOKUP(E920,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N920" s="8" t="e">
@@ -21003,7 +21016,7 @@
     </row>
     <row r="953" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E953" s="8" t="e">
-        <f t="shared" ref="E953:E1016" si="31">IF(E952+1&gt;MAX($B$4:$B$97), NA(), E952+1)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="F953" s="7" t="e">
@@ -21023,7 +21036,7 @@
     </row>
     <row r="954" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E954" s="8" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="E954:E1017" si="31">IF(E953+1&gt;MAX($B$4:$B$97), NA(), E953+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F954" s="7" t="e">
@@ -21607,7 +21620,7 @@
         <v>#N/A</v>
       </c>
       <c r="F983" s="7" t="e">
-        <f t="shared" ref="F983:F1046" si="32">VLOOKUP(E983,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="N983" s="8" t="e">
@@ -21627,7 +21640,7 @@
         <v>#N/A</v>
       </c>
       <c r="F984" s="7" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="F984:F1047" si="32">VLOOKUP(E984,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N984" s="8" t="e">
@@ -22283,7 +22296,7 @@
     </row>
     <row r="1017" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1017" s="8" t="e">
-        <f t="shared" ref="E1017:E1080" si="33">IF(E1016+1&gt;MAX($B$4:$B$97), NA(), E1016+1)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="F1017" s="7" t="e">
@@ -22303,7 +22316,7 @@
     </row>
     <row r="1018" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1018" s="8" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="E1018:E1081" si="33">IF(E1017+1&gt;MAX($B$4:$B$97), NA(), E1017+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1018" s="7" t="e">
@@ -22887,7 +22900,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1047" s="7" t="e">
-        <f t="shared" ref="F1047:F1110" si="34">VLOOKUP(E1047,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="N1047" s="8" t="e">
@@ -22907,7 +22920,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1048" s="7" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="F1048:F1111" si="34">VLOOKUP(E1048,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1048" s="8" t="e">
@@ -23563,7 +23576,7 @@
     </row>
     <row r="1081" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1081" s="8" t="e">
-        <f t="shared" ref="E1081:E1144" si="35">IF(E1080+1&gt;MAX($B$4:$B$97), NA(), E1080+1)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="F1081" s="7" t="e">
@@ -23583,7 +23596,7 @@
     </row>
     <row r="1082" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1082" s="8" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="E1082:E1145" si="35">IF(E1081+1&gt;MAX($B$4:$B$97), NA(), E1081+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1082" s="7" t="e">
@@ -24167,7 +24180,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1111" s="7" t="e">
-        <f t="shared" ref="F1111:F1174" si="36">VLOOKUP(E1111,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="N1111" s="8" t="e">
@@ -24187,7 +24200,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1112" s="7" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="F1112:F1175" si="36">VLOOKUP(E1112,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1112" s="8" t="e">
@@ -24843,7 +24856,7 @@
     </row>
     <row r="1145" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1145" s="8" t="e">
-        <f t="shared" ref="E1145:E1208" si="37">IF(E1144+1&gt;MAX($B$4:$B$97), NA(), E1144+1)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F1145" s="7" t="e">
@@ -24863,7 +24876,7 @@
     </row>
     <row r="1146" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1146" s="8" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="E1146:E1209" si="37">IF(E1145+1&gt;MAX($B$4:$B$97), NA(), E1145+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1146" s="7" t="e">
@@ -25447,7 +25460,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1175" s="7" t="e">
-        <f t="shared" ref="F1175:F1238" si="38">VLOOKUP(E1175,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="N1175" s="8" t="e">
@@ -25467,7 +25480,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1176" s="7" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="F1176:F1239" si="38">VLOOKUP(E1176,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1176" s="8" t="e">
@@ -26123,7 +26136,7 @@
     </row>
     <row r="1209" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1209" s="8" t="e">
-        <f t="shared" ref="E1209:E1272" si="39">IF(E1208+1&gt;MAX($B$4:$B$97), NA(), E1208+1)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="F1209" s="7" t="e">
@@ -26143,7 +26156,7 @@
     </row>
     <row r="1210" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1210" s="8" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="E1210:E1273" si="39">IF(E1209+1&gt;MAX($B$4:$B$97), NA(), E1209+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1210" s="7" t="e">
@@ -26727,7 +26740,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1239" s="7" t="e">
-        <f t="shared" ref="F1239:F1302" si="40">VLOOKUP(E1239,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="N1239" s="8" t="e">
@@ -26747,7 +26760,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1240" s="7" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="F1240:F1303" si="40">VLOOKUP(E1240,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1240" s="8" t="e">
@@ -27403,7 +27416,7 @@
     </row>
     <row r="1273" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1273" s="8" t="e">
-        <f t="shared" ref="E1273:E1336" si="41">IF(E1272+1&gt;MAX($B$4:$B$97), NA(), E1272+1)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="F1273" s="7" t="e">
@@ -27423,7 +27436,7 @@
     </row>
     <row r="1274" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1274" s="8" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="E1274:E1337" si="41">IF(E1273+1&gt;MAX($B$4:$B$97), NA(), E1273+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1274" s="7" t="e">
@@ -28007,7 +28020,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1303" s="7" t="e">
-        <f t="shared" ref="F1303:F1366" si="42">VLOOKUP(E1303,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="N1303" s="8" t="e">
@@ -28027,7 +28040,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1304" s="7" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="F1304:F1367" si="42">VLOOKUP(E1304,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1304" s="8" t="e">
@@ -28683,7 +28696,7 @@
     </row>
     <row r="1337" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1337" s="8" t="e">
-        <f t="shared" ref="E1337:E1400" si="43">IF(E1336+1&gt;MAX($B$4:$B$97), NA(), E1336+1)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="F1337" s="7" t="e">
@@ -28703,7 +28716,7 @@
     </row>
     <row r="1338" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1338" s="8" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E1338:E1401" si="43">IF(E1337+1&gt;MAX($B$4:$B$97), NA(), E1337+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1338" s="7" t="e">
@@ -29287,7 +29300,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1367" s="7" t="e">
-        <f t="shared" ref="F1367:F1430" si="44">VLOOKUP(E1367,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="N1367" s="8" t="e">
@@ -29307,7 +29320,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1368" s="7" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="F1368:F1431" si="44">VLOOKUP(E1368,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1368" s="8" t="e">
@@ -29963,7 +29976,7 @@
     </row>
     <row r="1401" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1401" s="8" t="e">
-        <f t="shared" ref="E1401:E1464" si="45">IF(E1400+1&gt;MAX($B$4:$B$97), NA(), E1400+1)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
       <c r="F1401" s="7" t="e">
@@ -29983,7 +29996,7 @@
     </row>
     <row r="1402" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1402" s="8" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="E1402:E1465" si="45">IF(E1401+1&gt;MAX($B$4:$B$97), NA(), E1401+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1402" s="7" t="e">
@@ -30567,7 +30580,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1431" s="7" t="e">
-        <f t="shared" ref="F1431:F1494" si="46">VLOOKUP(E1431,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="N1431" s="8" t="e">
@@ -30587,7 +30600,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1432" s="7" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="F1432:F1495" si="46">VLOOKUP(E1432,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1432" s="8" t="e">
@@ -31243,7 +31256,7 @@
     </row>
     <row r="1465" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1465" s="8" t="e">
-        <f t="shared" ref="E1465:E1528" si="47">IF(E1464+1&gt;MAX($B$4:$B$97), NA(), E1464+1)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="F1465" s="7" t="e">
@@ -31263,7 +31276,7 @@
     </row>
     <row r="1466" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1466" s="8" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E1466:E1529" si="47">IF(E1465+1&gt;MAX($B$4:$B$97), NA(), E1465+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1466" s="7" t="e">
@@ -31847,7 +31860,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1495" s="7" t="e">
-        <f t="shared" ref="F1495:F1558" si="48">VLOOKUP(E1495,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="N1495" s="8" t="e">
@@ -31867,7 +31880,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1496" s="7" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="F1496:F1559" si="48">VLOOKUP(E1496,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1496" s="8" t="e">
@@ -32523,7 +32536,7 @@
     </row>
     <row r="1529" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1529" s="8" t="e">
-        <f t="shared" ref="E1529:E1592" si="49">IF(E1528+1&gt;MAX($B$4:$B$97), NA(), E1528+1)</f>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="F1529" s="7" t="e">
@@ -32543,7 +32556,7 @@
     </row>
     <row r="1530" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1530" s="8" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="E1530:E1593" si="49">IF(E1529+1&gt;MAX($B$4:$B$97), NA(), E1529+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1530" s="7" t="e">
@@ -33127,7 +33140,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1559" s="7" t="e">
-        <f t="shared" ref="F1559:F1596" si="50">VLOOKUP(E1559,$B$4:$C$97, 2,TRUE)</f>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="N1559" s="8" t="e">
@@ -33147,7 +33160,7 @@
         <v>#N/A</v>
       </c>
       <c r="F1560" s="7" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="F1560:F1597" si="50">VLOOKUP(E1560,$B$4:$C$97, 2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="N1560" s="8" t="e">
@@ -33803,7 +33816,7 @@
     </row>
     <row r="1593" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1593" s="8" t="e">
-        <f t="shared" ref="E1593:E1596" si="51">IF(E1592+1&gt;MAX($B$4:$B$97), NA(), E1592+1)</f>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="F1593" s="7" t="e">
@@ -33823,7 +33836,7 @@
     </row>
     <row r="1594" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E1594" s="8" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="E1594:E1597" si="51">IF(E1593+1&gt;MAX($B$4:$B$97), NA(), E1593+1)</f>
         <v>#N/A</v>
       </c>
       <c r="F1594" s="7" t="e">
@@ -33878,6 +33891,16 @@
       </c>
       <c r="P1596" s="7" t="e">
         <f>SUM($O$8:O1596)+CurrentInventory</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1597" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E1597" s="8" t="e">
+        <f t="shared" si="51"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F1597" s="7" t="e">
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
     </row>
